--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forestation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54EF7D5-C5C6-48E7-956A-ADC6280DEAF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21B078-3147-4962-BC41-DB0091A7B26D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="531">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1669,6 +1669,12 @@
   </si>
   <si>
     <t>Yerrami.  S</t>
+  </si>
+  <si>
+    <t>Latititude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1780,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1786,7 +1789,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,54 +2118,54 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -3413,7 +3419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -4304,100 +4310,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228:K253"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" t="s">
+        <v>529</v>
+      </c>
+      <c r="M2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>62</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="4">
         <v>3.03</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>2474</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <v>-25</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="8">
         <v>7.9</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>63</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>65</v>
       </c>
@@ -4502,7 +4514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>66</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>67</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>68</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>69</v>
       </c>
@@ -4642,7 +4654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>70</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>71</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>72</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>73</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>74</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>75</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>102</v>
       </c>
@@ -6602,7 +6614,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -7547,7 +7559,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>153</v>
       </c>
@@ -8562,7 +8574,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>182</v>
       </c>
@@ -9542,7 +9554,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>210</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>237</v>
       </c>
@@ -11432,7 +11444,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>290</v>
       </c>
@@ -12238,37 +12250,37 @@
       </c>
     </row>
     <row r="228" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A228" s="12">
+      <c r="A228" s="8">
         <v>257</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B228" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="12">
+      <c r="C228" s="8">
         <v>130</v>
       </c>
-      <c r="D228" s="12">
+      <c r="D228" s="8">
         <v>707</v>
       </c>
-      <c r="E228" s="12" t="s">
+      <c r="E228" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G228" s="12">
+      <c r="F228" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" s="8">
         <v>-40</v>
       </c>
-      <c r="H228" s="12">
+      <c r="H228" s="8">
         <v>0</v>
       </c>
-      <c r="I228" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J228" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K228" s="12" t="s">
+      <c r="I228" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J228" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K228" s="8" t="s">
         <v>174</v>
       </c>
     </row>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21B078-3147-4962-BC41-DB0091A7B26D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02996C0-CBB3-4F7C-A074-A2CE12C65917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
     <sheet name="Zhang et al. (2017) &lt; 1000 km2" sheetId="2" r:id="rId2"/>
+    <sheet name="NewData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="549">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1675,6 +1676,60 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Adjungbilly Creek</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>Battaling Ck</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Zhang et al. 2011</t>
+  </si>
+  <si>
+    <t>Bombala River</t>
+  </si>
+  <si>
+    <t>Burnt Out Ck</t>
+  </si>
+  <si>
+    <t>Crawford River</t>
+  </si>
+  <si>
+    <t>Darlot Ck</t>
+  </si>
+  <si>
+    <t>Delegate River</t>
+  </si>
+  <si>
+    <t>Eumeralla River</t>
+  </si>
+  <si>
+    <t>Goobarragandra Ck</t>
+  </si>
+  <si>
+    <t>Jingellic Ck</t>
+  </si>
+  <si>
+    <t>Pine Ck</t>
+  </si>
+  <si>
+    <t>Traralgon Ck</t>
+  </si>
+  <si>
+    <t>Upper Denmark River</t>
+  </si>
+  <si>
+    <t>Yate Flat Ck</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1781,6 +1836,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2118,54 +2176,54 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4312,61 +4370,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" t="s">
         <v>529</v>
       </c>
@@ -13157,6 +13215,757 @@
       </c>
       <c r="K253" s="6" t="s">
         <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" t="s">
+        <v>529</v>
+      </c>
+      <c r="M2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3">
+        <v>391</v>
+      </c>
+      <c r="D3">
+        <v>1011</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G3">
+        <v>30.08</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>536</v>
+      </c>
+      <c r="L3">
+        <v>-32.020000000000003</v>
+      </c>
+      <c r="M3">
+        <v>148.25</v>
+      </c>
+      <c r="N3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4">
+        <v>16.64</v>
+      </c>
+      <c r="D4">
+        <v>629</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>536</v>
+      </c>
+      <c r="L4">
+        <v>-33.32</v>
+      </c>
+      <c r="M4">
+        <v>116.57</v>
+      </c>
+      <c r="N4">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5">
+        <v>559</v>
+      </c>
+      <c r="D5">
+        <v>783</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5">
+        <v>26.8</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L5">
+        <v>-37</v>
+      </c>
+      <c r="M5">
+        <v>149.38</v>
+      </c>
+      <c r="N5">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>806</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>533</v>
+      </c>
+      <c r="G6">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>536</v>
+      </c>
+      <c r="L6">
+        <v>-35.130000000000003</v>
+      </c>
+      <c r="M6">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="N6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7">
+        <v>606</v>
+      </c>
+      <c r="D7">
+        <v>728</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G7">
+        <v>24.18</v>
+      </c>
+      <c r="H7">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L7">
+        <v>-37.979999999999997</v>
+      </c>
+      <c r="M7">
+        <v>141.46</v>
+      </c>
+      <c r="N7">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8">
+        <v>760</v>
+      </c>
+      <c r="D8">
+        <v>688</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G8">
+        <v>13.3</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>536</v>
+      </c>
+      <c r="L8">
+        <v>-38.15</v>
+      </c>
+      <c r="M8">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="N8">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9">
+        <v>1135.7</v>
+      </c>
+      <c r="D9">
+        <v>859</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>535</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>536</v>
+      </c>
+      <c r="L9">
+        <v>-36.979999999999997</v>
+      </c>
+      <c r="M9">
+        <v>149.05000000000001</v>
+      </c>
+      <c r="N9">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C10">
+        <v>502</v>
+      </c>
+      <c r="D10">
+        <v>725</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G10">
+        <v>19.84</v>
+      </c>
+      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>536</v>
+      </c>
+      <c r="L10">
+        <v>-38.26</v>
+      </c>
+      <c r="M10">
+        <v>141.94</v>
+      </c>
+      <c r="N10">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11">
+        <v>673</v>
+      </c>
+      <c r="D11">
+        <v>1009</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G11">
+        <v>8.32</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>536</v>
+      </c>
+      <c r="L11">
+        <v>-35.19</v>
+      </c>
+      <c r="M11">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="N11">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C12">
+        <v>390</v>
+      </c>
+      <c r="D12">
+        <v>838</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G12">
+        <v>27.5</v>
+      </c>
+      <c r="H12">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>536</v>
+      </c>
+      <c r="L12">
+        <v>-35.53</v>
+      </c>
+      <c r="M12">
+        <v>147.41</v>
+      </c>
+      <c r="N12">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13">
+        <v>3.2</v>
+      </c>
+      <c r="D13">
+        <v>629</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>533</v>
+      </c>
+      <c r="G13">
+        <v>88</v>
+      </c>
+      <c r="H13">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>536</v>
+      </c>
+      <c r="L13">
+        <v>-37.29</v>
+      </c>
+      <c r="M13">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N13">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14">
+        <v>1.95</v>
+      </c>
+      <c r="D14">
+        <v>760</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>533</v>
+      </c>
+      <c r="G14">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>536</v>
+      </c>
+      <c r="L14">
+        <v>-35.119999999999997</v>
+      </c>
+      <c r="M14">
+        <v>149.35</v>
+      </c>
+      <c r="N14">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>959</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15">
+        <v>58</v>
+      </c>
+      <c r="H15">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>536</v>
+      </c>
+      <c r="L15">
+        <v>-38.32</v>
+      </c>
+      <c r="M15">
+        <v>146.53</v>
+      </c>
+      <c r="N15">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16">
+        <v>243</v>
+      </c>
+      <c r="D16">
+        <v>742</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>535</v>
+      </c>
+      <c r="G16">
+        <v>15.17</v>
+      </c>
+      <c r="H16">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>536</v>
+      </c>
+      <c r="L16">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="M16">
+        <v>117.22</v>
+      </c>
+      <c r="N16">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C17">
+        <v>26.35</v>
+      </c>
+      <c r="D17">
+        <v>742</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>535</v>
+      </c>
+      <c r="G17">
+        <v>33.57</v>
+      </c>
+      <c r="H17">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>536</v>
+      </c>
+      <c r="L17">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="M17">
+        <v>117.29</v>
+      </c>
+      <c r="N17">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02996C0-CBB3-4F7C-A074-A2CE12C65917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485BB41-39CD-4431-9AEC-454E36EE4070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="2064" yWindow="348" windowWidth="19404" windowHeight="11400" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="551">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1730,6 +1730,12 @@
   </si>
   <si>
     <t>Yate Flat Ck</t>
+  </si>
+  <si>
+    <t>Borg et al. 1988</t>
+  </si>
+  <si>
+    <t>Padbury reservoir catchment</t>
   </si>
 </sst>
 </file>
@@ -4370,7 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
@@ -13239,7 +13245,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13326,7 +13332,7 @@
         <v>30.08</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -13370,7 +13376,7 @@
         <v>19</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>-52</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -13414,7 +13420,7 @@
         <v>26.8</v>
       </c>
       <c r="H5">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -13458,7 +13464,7 @@
         <v>67</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -13502,7 +13508,7 @@
         <v>24.18</v>
       </c>
       <c r="H7">
-        <v>66</v>
+        <v>-66</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -13546,7 +13552,7 @@
         <v>13.3</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>-28</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -13590,7 +13596,7 @@
         <v>14</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>-52</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -13634,7 +13640,7 @@
         <v>19.84</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>-57</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -13678,7 +13684,7 @@
         <v>8.32</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -13722,7 +13728,7 @@
         <v>27.5</v>
       </c>
       <c r="H12">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -13766,7 +13772,7 @@
         <v>88</v>
       </c>
       <c r="H13">
-        <v>106</v>
+        <v>-106</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -13810,7 +13816,7 @@
         <v>78</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>-66</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -13854,7 +13860,7 @@
         <v>58</v>
       </c>
       <c r="H15">
-        <v>78</v>
+        <v>-78</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -13898,7 +13904,7 @@
         <v>15.17</v>
       </c>
       <c r="H16">
-        <v>93</v>
+        <v>-93</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -13942,7 +13948,7 @@
         <v>33.57</v>
       </c>
       <c r="H17">
-        <v>91</v>
+        <v>-91</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -13966,6 +13972,43 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C18">
+        <f>196.4/100</f>
+        <v>1.964</v>
+      </c>
+      <c r="D18">
+        <v>880</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>533</v>
+      </c>
+      <c r="G18">
+        <v>60.9</v>
+      </c>
+      <c r="H18">
+        <v>-92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>549</v>
+      </c>
+      <c r="L18">
+        <v>-33.810141399699802</v>
+      </c>
+      <c r="M18">
+        <v>116.003923121299</v>
       </c>
     </row>
   </sheetData>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485BB41-39CD-4431-9AEC-454E36EE4070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78383814-B84F-460B-A436-E99062A392AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="348" windowWidth="19404" windowHeight="11400" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="554">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1736,6 +1736,15 @@
   </si>
   <si>
     <t>Padbury reservoir catchment</t>
+  </si>
+  <si>
+    <t>Pasak River (North Thailand)</t>
+  </si>
+  <si>
+    <t>cited in Pena-Arancibia et al. 2012, original paper inaccessible</t>
+  </si>
+  <si>
+    <t>Lat long for Petchaboon, data also via: http://www.bom.gov.au/water/about/waterResearch/document/10_Thailand-12.pdf</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
@@ -13242,10 +13251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13925,7 +13934,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>297</v>
       </c>
@@ -13969,7 +13978,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>298</v>
       </c>
@@ -14009,6 +14018,61 @@
       </c>
       <c r="M18">
         <v>116.003923121299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19">
+        <v>14500</v>
+      </c>
+      <c r="D19">
+        <v>1208</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19">
+        <v>-50</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>552</v>
+      </c>
+      <c r="L19">
+        <v>16.433</v>
+      </c>
+      <c r="M19">
+        <v>101.18</v>
+      </c>
+      <c r="N19">
+        <v>1643</v>
+      </c>
+      <c r="O19" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="K20" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78383814-B84F-460B-A436-E99062A392AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C1696-5A98-4DDD-92EB-EB24CB3F3E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="21280" yWindow="3100" windowWidth="14400" windowHeight="8300" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="582">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1057,9 +1057,6 @@
     <t>Molina et al.,2012</t>
   </si>
   <si>
-    <t>Jonhershoek, South Africa:Bosboukloof</t>
-  </si>
-  <si>
     <t>Van der Zeland Kruger,1975</t>
   </si>
   <si>
@@ -1522,9 +1519,6 @@
     <t>Hibbert,1967,1969,1971,1979; Hibbert et al., 1975</t>
   </si>
   <si>
-    <t>Tierkloo</t>
-  </si>
-  <si>
     <t>Treated A</t>
   </si>
   <si>
@@ -1684,15 +1678,9 @@
     <t>E0</t>
   </si>
   <si>
-    <t>WL</t>
-  </si>
-  <si>
     <t>Battaling Ck</t>
   </si>
   <si>
-    <t>EL</t>
-  </si>
-  <si>
     <t>Zhang et al. 2011</t>
   </si>
   <si>
@@ -1745,13 +1733,109 @@
   </si>
   <si>
     <t>Lat long for Petchaboon, data also via: http://www.bom.gov.au/water/about/waterResearch/document/10_Thailand-12.pdf</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Length of study (years)</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Jonkershoek, South Africa:Bosboukloof</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>later paper Ruprecht and Schofield (1991a). Zhao et al (2010) finds much lower deltaQ in %: 70% using EA. Data added based on  Zhao et al. 2010</t>
+  </si>
+  <si>
+    <t>duplicates?</t>
+  </si>
+  <si>
+    <t>incorrect reference? Best et al. 2003? Data added from Zhao et al. 2010</t>
+  </si>
+  <si>
+    <t>Zhao et al. 2010</t>
+  </si>
+  <si>
+    <t>GH2/Glendhu</t>
+  </si>
+  <si>
+    <t>data from table 6 Zhao et al. 2010 rather than original paper</t>
+  </si>
+  <si>
+    <t>Pearl River</t>
+  </si>
+  <si>
+    <t>Zhou et al. 2010</t>
+  </si>
+  <si>
+    <t>Area is for the whole Guangdong province, from Pena-Arancibia et al. 2012</t>
+  </si>
+  <si>
+    <t>Burdekin</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>Pena-Arancibia et al. 2012</t>
+  </si>
+  <si>
+    <t>follow-up study on watershed #8 with different results</t>
+  </si>
+  <si>
+    <t>Ji-Parana</t>
+  </si>
+  <si>
+    <t>precipitation varies between 1250 and 2500 mm</t>
+  </si>
+  <si>
+    <t>Rodriguez et al. 2010</t>
+  </si>
+  <si>
+    <t>Brigalow C2</t>
+  </si>
+  <si>
+    <t>Thornton et al. 2007</t>
+  </si>
+  <si>
+    <t>Cropping catchment, grassland catchment is C3, runoff % change estimate based on Table 4 in Thorton et al. 2007</t>
+  </si>
+  <si>
+    <t>Repeat of Webb and Kathuria, 2012 # 248</t>
+  </si>
+  <si>
+    <t>Tierkloof</t>
+  </si>
+  <si>
+    <t>Ruprecht et al. 1991</t>
+  </si>
+  <si>
+    <t>unclear where this is? Not in Ruprecht and Schofield (1991)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Approximate location using original report (Schneider &amp; Ayer 1961) and google maps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,13 +1872,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1827,7 +1923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1856,6 +1952,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1868,6 +1971,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2184,61 +2288,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4383,71 +4487,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" t="s">
-        <v>529</v>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="M2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="N2" t="s">
+        <v>554</v>
+      </c>
+      <c r="O2" t="s">
+        <v>551</v>
+      </c>
+      <c r="P2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>62</v>
       </c>
@@ -4481,8 +4595,9 @@
       <c r="K3" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>63</v>
       </c>
@@ -4516,8 +4631,9 @@
       <c r="K4" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -4551,8 +4667,17 @@
       <c r="K5" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M5" s="17">
+        <v>34.790599999999998</v>
+      </c>
+      <c r="N5" s="17">
+        <v>-93.024600000000007</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>65</v>
       </c>
@@ -4586,8 +4711,18 @@
       <c r="K6" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L6" s="4"/>
+      <c r="M6" s="17">
+        <v>34.790599999999998</v>
+      </c>
+      <c r="N6" s="17">
+        <v>-93.024600000000007</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>66</v>
       </c>
@@ -4621,8 +4756,9 @@
       <c r="K7" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>67</v>
       </c>
@@ -4656,8 +4792,23 @@
       <c r="K8" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="P8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>68</v>
       </c>
@@ -4691,8 +4842,9 @@
       <c r="K9" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>69</v>
       </c>
@@ -4726,8 +4878,9 @@
       <c r="K10" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>70</v>
       </c>
@@ -4761,8 +4914,9 @@
       <c r="K11" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>71</v>
       </c>
@@ -4796,8 +4950,9 @@
       <c r="K12" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>72</v>
       </c>
@@ -4831,8 +4986,9 @@
       <c r="K13" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>73</v>
       </c>
@@ -4866,8 +5022,9 @@
       <c r="K14" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>74</v>
       </c>
@@ -4901,8 +5058,9 @@
       <c r="K15" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>75</v>
       </c>
@@ -4936,8 +5094,9 @@
       <c r="K16" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>76</v>
       </c>
@@ -4971,8 +5130,9 @@
       <c r="K17" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>77</v>
       </c>
@@ -5006,8 +5166,9 @@
       <c r="K18" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>78</v>
       </c>
@@ -5041,8 +5202,9 @@
       <c r="K19" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -5076,8 +5238,9 @@
       <c r="K20" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>80</v>
       </c>
@@ -5111,8 +5274,9 @@
       <c r="K21" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>81</v>
       </c>
@@ -5146,8 +5310,9 @@
       <c r="K22" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>82</v>
       </c>
@@ -5181,8 +5346,9 @@
       <c r="K23" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>83</v>
       </c>
@@ -5216,8 +5382,9 @@
       <c r="K24" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>84</v>
       </c>
@@ -5251,8 +5418,9 @@
       <c r="K25" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>85</v>
       </c>
@@ -5286,8 +5454,9 @@
       <c r="K26" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>86</v>
       </c>
@@ -5321,8 +5490,9 @@
       <c r="K27" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>87</v>
       </c>
@@ -5356,8 +5526,9 @@
       <c r="K28" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>88</v>
       </c>
@@ -5391,8 +5562,9 @@
       <c r="K29" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>89</v>
       </c>
@@ -5426,8 +5598,9 @@
       <c r="K30" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>90</v>
       </c>
@@ -5461,8 +5634,9 @@
       <c r="K31" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>91</v>
       </c>
@@ -5496,8 +5670,9 @@
       <c r="K32" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>92</v>
       </c>
@@ -5531,8 +5706,9 @@
       <c r="K33" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>93</v>
       </c>
@@ -5566,8 +5742,9 @@
       <c r="K34" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>94</v>
       </c>
@@ -5601,8 +5778,9 @@
       <c r="K35" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>95</v>
       </c>
@@ -5636,8 +5814,9 @@
       <c r="K36" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>96</v>
       </c>
@@ -5671,8 +5850,9 @@
       <c r="K37" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>97</v>
       </c>
@@ -5706,8 +5886,9 @@
       <c r="K38" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>98</v>
       </c>
@@ -5741,8 +5922,9 @@
       <c r="K39" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>99</v>
       </c>
@@ -5776,8 +5958,9 @@
       <c r="K40" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100</v>
       </c>
@@ -5811,8 +5994,9 @@
       <c r="K41" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>101</v>
       </c>
@@ -5846,8 +6030,9 @@
       <c r="K42" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>102</v>
       </c>
@@ -5881,8 +6066,17 @@
       <c r="K43" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M43" s="4">
+        <v>42.173830140236902</v>
+      </c>
+      <c r="N43">
+        <v>-75.409262268186097</v>
+      </c>
+      <c r="P43" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>103</v>
       </c>
@@ -5916,8 +6110,9 @@
       <c r="K44" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>104</v>
       </c>
@@ -5951,8 +6146,9 @@
       <c r="K45" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>105</v>
       </c>
@@ -5986,8 +6182,9 @@
       <c r="K46" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>106</v>
       </c>
@@ -6021,8 +6218,9 @@
       <c r="K47" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>107</v>
       </c>
@@ -6056,8 +6254,9 @@
       <c r="K48" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>108</v>
       </c>
@@ -6091,8 +6290,9 @@
       <c r="K49" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>109</v>
       </c>
@@ -6126,8 +6326,9 @@
       <c r="K50" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>110</v>
       </c>
@@ -6161,8 +6362,9 @@
       <c r="K51" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>111</v>
       </c>
@@ -6196,8 +6398,9 @@
       <c r="K52" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>112</v>
       </c>
@@ -6231,8 +6434,9 @@
       <c r="K53" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>113</v>
       </c>
@@ -6266,8 +6470,9 @@
       <c r="K54" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>114</v>
       </c>
@@ -6301,8 +6506,9 @@
       <c r="K55" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>115</v>
       </c>
@@ -6336,8 +6542,9 @@
       <c r="K56" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>116</v>
       </c>
@@ -6371,8 +6578,9 @@
       <c r="K57" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>117</v>
       </c>
@@ -6406,8 +6614,9 @@
       <c r="K58" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>118</v>
       </c>
@@ -6441,8 +6650,9 @@
       <c r="K59" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>119</v>
       </c>
@@ -6476,8 +6686,9 @@
       <c r="K60" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>120</v>
       </c>
@@ -6511,8 +6722,9 @@
       <c r="K61" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>121</v>
       </c>
@@ -6546,8 +6758,9 @@
       <c r="K62" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -6581,8 +6794,9 @@
       <c r="K63" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -6616,8 +6830,9 @@
       <c r="K64" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -6651,8 +6866,9 @@
       <c r="K65" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -6686,8 +6902,9 @@
       <c r="K66" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -6721,8 +6938,9 @@
       <c r="K67" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -6756,8 +6974,9 @@
       <c r="K68" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -6791,8 +7010,9 @@
       <c r="K69" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -6826,8 +7046,9 @@
       <c r="K70" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -6861,8 +7082,9 @@
       <c r="K71" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -6896,8 +7118,23 @@
       <c r="K72" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L72" s="4">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="M72">
+        <v>-34.290999999999997</v>
+      </c>
+      <c r="N72">
+        <v>115.248</v>
+      </c>
+      <c r="O72">
+        <v>24</v>
+      </c>
+      <c r="P72" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -6931,8 +7168,9 @@
       <c r="K73" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:16" ht="51" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -6966,8 +7204,9 @@
       <c r="K74" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>134</v>
       </c>
@@ -7001,8 +7240,9 @@
       <c r="K75" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>135</v>
       </c>
@@ -7036,8 +7276,9 @@
       <c r="K76" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>136</v>
       </c>
@@ -7071,8 +7312,9 @@
       <c r="K77" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -7106,8 +7348,9 @@
       <c r="K78" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>138</v>
       </c>
@@ -7141,8 +7384,9 @@
       <c r="K79" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -7176,8 +7420,9 @@
       <c r="K80" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -7211,8 +7456,9 @@
       <c r="K81" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -7246,8 +7492,9 @@
       <c r="K82" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -7281,8 +7528,9 @@
       <c r="K83" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -7316,8 +7564,9 @@
       <c r="K84" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>144</v>
       </c>
@@ -7351,8 +7600,9 @@
       <c r="K85" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -7386,8 +7636,9 @@
       <c r="K86" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -7421,8 +7672,9 @@
       <c r="K87" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>147</v>
       </c>
@@ -7456,8 +7708,9 @@
       <c r="K88" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>148</v>
       </c>
@@ -7491,8 +7744,9 @@
       <c r="K89" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>149</v>
       </c>
@@ -7526,8 +7780,9 @@
       <c r="K90" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>150</v>
       </c>
@@ -7561,8 +7816,9 @@
       <c r="K91" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>151</v>
       </c>
@@ -7596,8 +7852,9 @@
       <c r="K92" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>152</v>
       </c>
@@ -7631,8 +7888,9 @@
       <c r="K93" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>153</v>
       </c>
@@ -7666,8 +7924,9 @@
       <c r="K94" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>154</v>
       </c>
@@ -7701,8 +7960,9 @@
       <c r="K95" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>155</v>
       </c>
@@ -7736,8 +7996,9 @@
       <c r="K96" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>156</v>
       </c>
@@ -7771,8 +8032,9 @@
       <c r="K97" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>157</v>
       </c>
@@ -7806,8 +8068,9 @@
       <c r="K98" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>158</v>
       </c>
@@ -7841,8 +8104,9 @@
       <c r="K99" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>159</v>
       </c>
@@ -7876,8 +8140,9 @@
       <c r="K100" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>160</v>
       </c>
@@ -7911,8 +8176,9 @@
       <c r="K101" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>161</v>
       </c>
@@ -7946,8 +8212,9 @@
       <c r="K102" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>162</v>
       </c>
@@ -7981,8 +8248,9 @@
       <c r="K103" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>163</v>
       </c>
@@ -8016,8 +8284,9 @@
       <c r="K104" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -8051,8 +8320,9 @@
       <c r="K105" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -8086,8 +8356,9 @@
       <c r="K106" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -8121,8 +8392,9 @@
       <c r="K107" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -8156,8 +8428,9 @@
       <c r="K108" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -8191,8 +8464,9 @@
       <c r="K109" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -8226,8 +8500,9 @@
       <c r="K110" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>170</v>
       </c>
@@ -8261,8 +8536,9 @@
       <c r="K111" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>171</v>
       </c>
@@ -8296,8 +8572,9 @@
       <c r="K112" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>172</v>
       </c>
@@ -8331,8 +8608,9 @@
       <c r="K113" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>173</v>
       </c>
@@ -8366,8 +8644,9 @@
       <c r="K114" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>174</v>
       </c>
@@ -8401,8 +8680,9 @@
       <c r="K115" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>175</v>
       </c>
@@ -8436,8 +8716,9 @@
       <c r="K116" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>176</v>
       </c>
@@ -8471,8 +8752,9 @@
       <c r="K117" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>177</v>
       </c>
@@ -8506,8 +8788,9 @@
       <c r="K118" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>178</v>
       </c>
@@ -8541,8 +8824,9 @@
       <c r="K119" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>179</v>
       </c>
@@ -8576,8 +8860,9 @@
       <c r="K120" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>180</v>
       </c>
@@ -8611,8 +8896,9 @@
       <c r="K121" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>181</v>
       </c>
@@ -8646,8 +8932,9 @@
       <c r="K122" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>182</v>
       </c>
@@ -8681,8 +8968,9 @@
       <c r="K123" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>183</v>
       </c>
@@ -8716,13 +9004,14 @@
       <c r="K124" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>184</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>324</v>
+        <v>555</v>
       </c>
       <c r="C125" s="4">
         <v>2</v>
@@ -8749,15 +9038,16 @@
         <v>16</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>185</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C126" s="4">
         <v>0.03</v>
@@ -8784,15 +9074,16 @@
         <v>16</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>186</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C127" s="4">
         <v>0.56000000000000005</v>
@@ -8816,18 +9107,19 @@
         <v>15</v>
       </c>
       <c r="J127" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>187</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C128" s="4">
         <v>7.02</v>
@@ -8854,15 +9146,16 @@
         <v>16</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>188</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C129" s="4">
         <v>0.36399999999999999</v>
@@ -8891,13 +9184,14 @@
       <c r="K129" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>189</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C130" s="4">
         <v>0.35</v>
@@ -8926,13 +9220,14 @@
       <c r="K130" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>190</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C131" s="4">
         <v>0.86</v>
@@ -8959,15 +9254,16 @@
         <v>16</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>191</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C132" s="4">
         <v>0.97399999999999998</v>
@@ -8994,15 +9290,16 @@
         <v>16</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>192</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C133" s="4">
         <v>504</v>
@@ -9029,15 +9326,16 @@
         <v>21</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>193</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C134" s="4">
         <v>12</v>
@@ -9064,15 +9362,16 @@
         <v>21</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>194</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C135" s="4">
         <v>0.65</v>
@@ -9099,15 +9398,16 @@
         <v>16</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>195</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C136" s="4">
         <v>292.91000000000003</v>
@@ -9134,15 +9434,16 @@
         <v>16</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>196</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C137" s="4">
         <v>0.43</v>
@@ -9169,15 +9470,16 @@
         <v>16</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>197</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C138" s="4">
         <v>0.01</v>
@@ -9206,13 +9508,14 @@
       <c r="K138" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>198</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C139" s="4">
         <v>579</v>
@@ -9239,15 +9542,16 @@
         <v>21</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>199</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C140" s="4">
         <v>54</v>
@@ -9276,13 +9580,14 @@
       <c r="K140" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>200</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C141" s="6">
         <v>1.2</v>
@@ -9311,13 +9616,14 @@
       <c r="K141" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L141" s="11"/>
+    </row>
+    <row r="142" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>201</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C142" s="4">
         <v>12</v>
@@ -9344,15 +9650,16 @@
         <v>26</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>202</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C143" s="4">
         <v>8.2100000000000009</v>
@@ -9376,18 +9683,19 @@
         <v>15</v>
       </c>
       <c r="J143" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>203</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C144" s="4">
         <v>610</v>
@@ -9414,15 +9722,16 @@
         <v>21</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>204</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C145" s="4">
         <v>401</v>
@@ -9451,13 +9760,14 @@
       <c r="K145" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>205</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C146" s="4">
         <v>3.5000000000000001E-3</v>
@@ -9484,15 +9794,16 @@
         <v>16</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>206</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C147" s="4">
         <v>0.1</v>
@@ -9519,15 +9830,16 @@
         <v>21</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>207</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C148" s="4">
         <v>4.1399999999999999E-2</v>
@@ -9554,15 +9866,16 @@
         <v>16</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>208</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C149" s="4">
         <v>8.2600000000000007E-2</v>
@@ -9589,15 +9902,16 @@
         <v>16</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>209</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C150" s="4">
         <v>0.34</v>
@@ -9624,15 +9938,16 @@
         <v>16</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>210</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C151" s="4">
         <v>2.48</v>
@@ -9659,15 +9974,16 @@
         <v>16</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>211</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C152" s="4">
         <v>0.20200000000000001</v>
@@ -9694,15 +10010,16 @@
         <v>16</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>212</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C153" s="4">
         <v>0.26</v>
@@ -9729,15 +10046,16 @@
         <v>16</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>213</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C154" s="4">
         <v>0.63</v>
@@ -9766,13 +10084,14 @@
       <c r="K154" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>214</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C155" s="4">
         <v>0.04</v>
@@ -9801,13 +10120,14 @@
       <c r="K155" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L155" s="4"/>
+    </row>
+    <row r="156" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>215</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C156" s="4">
         <v>0.73</v>
@@ -9836,13 +10156,14 @@
       <c r="K156" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L156" s="4"/>
+    </row>
+    <row r="157" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>216</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C157" s="4">
         <v>0.63</v>
@@ -9869,15 +10190,16 @@
         <v>16</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>217</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C158" s="4">
         <v>650</v>
@@ -9906,13 +10228,14 @@
       <c r="K158" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L158" s="4"/>
+    </row>
+    <row r="159" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>218</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C159" s="4">
         <v>434</v>
@@ -9941,13 +10264,14 @@
       <c r="K159" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>219</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C160" s="4">
         <v>0.30499999999999999</v>
@@ -9976,13 +10300,14 @@
       <c r="K160" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L160" s="4"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>220</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
@@ -10009,15 +10334,16 @@
         <v>16</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>221</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C162" s="4">
         <v>0.183</v>
@@ -10044,15 +10370,16 @@
         <v>16</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="L162" s="4"/>
+    </row>
+    <row r="163" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>222</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C163" s="4">
         <v>0.41</v>
@@ -10079,15 +10406,16 @@
         <v>16</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>223</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C164" s="4">
         <v>0.41</v>
@@ -10114,15 +10442,16 @@
         <v>16</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>224</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C165" s="4">
         <v>36.299999999999997</v>
@@ -10149,15 +10478,16 @@
         <v>16</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>225</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C166" s="4">
         <v>0.05</v>
@@ -10184,15 +10514,16 @@
         <v>16</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>226</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C167" s="4">
         <v>0.05</v>
@@ -10219,15 +10550,16 @@
         <v>16</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>227</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C168" s="4">
         <v>0.71</v>
@@ -10254,15 +10586,16 @@
         <v>16</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>228</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C169" s="6">
         <v>0.318</v>
@@ -10289,15 +10622,16 @@
         <v>16</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="L169" s="11"/>
+    </row>
+    <row r="170" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>229</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C170" s="4">
         <v>8.2899999999999991</v>
@@ -10321,18 +10655,19 @@
         <v>15</v>
       </c>
       <c r="J170" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K170" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>230</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C171" s="4">
         <v>0.63</v>
@@ -10359,15 +10694,16 @@
         <v>21</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>231</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C172" s="4">
         <v>256</v>
@@ -10394,15 +10730,16 @@
         <v>21</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>232</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C173" s="4">
         <v>5.74E-2</v>
@@ -10429,15 +10766,16 @@
         <v>16</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>233</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C174" s="4">
         <v>5.91E-2</v>
@@ -10464,15 +10802,16 @@
         <v>16</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>234</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C175" s="4">
         <v>4.3499999999999997E-2</v>
@@ -10499,15 +10838,16 @@
         <v>16</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>235</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C176" s="4">
         <v>5.11E-2</v>
@@ -10534,15 +10874,16 @@
         <v>16</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>236</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C177" s="4">
         <v>4.1500000000000002E-2</v>
@@ -10569,15 +10910,16 @@
         <v>16</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>237</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C178" s="4">
         <v>4.9299999999999997E-2</v>
@@ -10604,15 +10946,16 @@
         <v>16</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>238</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C179" s="4">
         <v>4.0800000000000003E-2</v>
@@ -10639,15 +10982,16 @@
         <v>16</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>239</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C180" s="4">
         <v>1.2749999999999999</v>
@@ -10676,13 +11020,14 @@
       <c r="K180" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>240</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C181" s="4">
         <v>1.2849999999999999</v>
@@ -10711,13 +11056,17 @@
       <c r="K181" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L181" s="4"/>
+      <c r="P181" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>241</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C182" s="4">
         <v>0.52800000000000002</v>
@@ -10744,15 +11093,16 @@
         <v>16</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="L182" s="4"/>
+    </row>
+    <row r="183" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>242</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C183" s="4">
         <v>0.35</v>
@@ -10779,15 +11129,16 @@
         <v>16</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>243</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C184" s="4">
         <v>0.05</v>
@@ -10814,15 +11165,16 @@
         <v>16</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="L184" s="4"/>
+    </row>
+    <row r="185" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>244</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C185" s="4">
         <v>22.9</v>
@@ -10851,13 +11203,14 @@
       <c r="K185" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>245</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C186" s="4">
         <v>386</v>
@@ -10886,13 +11239,14 @@
       <c r="K186" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L186" s="4"/>
+    </row>
+    <row r="187" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>246</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C187" s="4">
         <v>734</v>
@@ -10921,13 +11275,14 @@
       <c r="K187" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>247</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C188" s="4">
         <v>40</v>
@@ -10954,15 +11309,16 @@
         <v>21</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>248</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C189" s="4">
         <v>1.95</v>
@@ -10989,15 +11345,27 @@
         <v>16</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="L189" s="4">
+        <v>1300</v>
+      </c>
+      <c r="M189">
+        <v>-35.011000000000003</v>
+      </c>
+      <c r="N189">
+        <v>148.34299999999999</v>
+      </c>
+      <c r="O189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>249</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C190" s="4">
         <v>65</v>
@@ -11024,15 +11392,16 @@
         <v>21</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="L190" s="4"/>
+    </row>
+    <row r="191" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>250</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C191" s="4">
         <v>1.4</v>
@@ -11059,15 +11428,16 @@
         <v>16</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>251</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C192" s="4">
         <v>1</v>
@@ -11094,15 +11464,16 @@
         <v>16</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="L192" s="4"/>
+    </row>
+    <row r="193" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>252</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C193" s="4">
         <v>0.377</v>
@@ -11131,13 +11502,14 @@
       <c r="K193" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>253</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C194" s="4">
         <v>0.59199999999999997</v>
@@ -11166,13 +11538,14 @@
       <c r="K194" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L194" s="4"/>
+    </row>
+    <row r="195" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>254</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C195" s="4">
         <v>7</v>
@@ -11201,13 +11574,14 @@
       <c r="K195" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L195" s="4"/>
+    </row>
+    <row r="196" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>255</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C196" s="4">
         <v>3.54</v>
@@ -11234,15 +11608,16 @@
         <v>16</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>256</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C197" s="6">
         <v>104</v>
@@ -11271,13 +11646,14 @@
       <c r="K197" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L197" s="11"/>
+    </row>
+    <row r="198" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>283</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C198" s="4">
         <v>41.5</v>
@@ -11306,13 +11682,14 @@
       <c r="K198" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L198" s="4"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>284</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C199" s="4">
         <v>0.54</v>
@@ -11339,15 +11716,16 @@
         <v>16</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="L199" s="4"/>
+    </row>
+    <row r="200" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>285</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C200" s="4">
         <v>252</v>
@@ -11374,15 +11752,16 @@
         <v>21</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="L200" s="4"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>286</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C201" s="4">
         <v>1.32</v>
@@ -11411,13 +11790,14 @@
       <c r="K201" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L201" s="4"/>
+    </row>
+    <row r="202" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>287</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C202" s="4">
         <v>19.46</v>
@@ -11444,15 +11824,16 @@
         <v>16</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="L202" s="4"/>
+    </row>
+    <row r="203" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>288</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C203" s="4">
         <v>8.25</v>
@@ -11479,15 +11860,16 @@
         <v>16</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="L203" s="4"/>
+    </row>
+    <row r="204" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>289</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C204" s="4">
         <v>7.7</v>
@@ -11514,15 +11896,16 @@
         <v>16</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="L204" s="4"/>
+    </row>
+    <row r="205" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>290</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C205" s="4">
         <v>8.64</v>
@@ -11549,15 +11932,16 @@
         <v>16</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="L205" s="4"/>
+    </row>
+    <row r="206" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>291</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C206" s="4">
         <v>0.81</v>
@@ -11584,15 +11968,16 @@
         <v>16</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="L206" s="4"/>
+    </row>
+    <row r="207" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>292</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C207" s="4">
         <v>0.81</v>
@@ -11619,15 +12004,16 @@
         <v>16</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="L207" s="4"/>
+    </row>
+    <row r="208" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>293</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C208" s="4">
         <v>249</v>
@@ -11654,15 +12040,16 @@
         <v>21</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="L208" s="4"/>
+    </row>
+    <row r="209" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>294</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C209" s="4">
         <v>6.94</v>
@@ -11689,15 +12076,16 @@
         <v>16</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="L209" s="4"/>
+    </row>
+    <row r="210" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>295</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -11724,15 +12112,16 @@
         <v>16</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="L210" s="4"/>
+    </row>
+    <row r="211" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>296</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C211" s="4">
         <v>1</v>
@@ -11759,15 +12148,16 @@
         <v>16</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="L211" s="4"/>
+    </row>
+    <row r="212" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>297</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C212" s="4">
         <v>0.68200000000000005</v>
@@ -11794,15 +12184,16 @@
         <v>16</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="L212" s="4"/>
+    </row>
+    <row r="213" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>298</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C213" s="4">
         <v>0.94</v>
@@ -11829,15 +12220,30 @@
         <v>16</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="L213" s="4">
+        <v>1470.8</v>
+      </c>
+      <c r="M213">
+        <v>-33.420999999999999</v>
+      </c>
+      <c r="N213">
+        <v>115.989</v>
+      </c>
+      <c r="O213" s="4">
+        <v>24</v>
+      </c>
+      <c r="P213" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>299</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C214" s="4">
         <v>0.77500000000000002</v>
@@ -11864,15 +12270,16 @@
         <v>16</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="L214" s="4"/>
+    </row>
+    <row r="215" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>300</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C215" s="4">
         <v>0.85599999999999998</v>
@@ -11899,15 +12306,16 @@
         <v>16</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="L215" s="4"/>
+    </row>
+    <row r="216" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>301</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C216" s="4">
         <v>0.6</v>
@@ -11934,15 +12342,16 @@
         <v>16</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="L216" s="4"/>
+    </row>
+    <row r="217" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>302</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
@@ -11969,15 +12378,16 @@
         <v>16</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="L217" s="4"/>
+    </row>
+    <row r="218" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>303</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C218" s="4">
         <v>1</v>
@@ -12004,15 +12414,16 @@
         <v>16</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="L218" s="4"/>
+    </row>
+    <row r="219" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>304</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C219" s="4">
         <v>1</v>
@@ -12039,15 +12450,16 @@
         <v>16</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="L219" s="4"/>
+    </row>
+    <row r="220" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>305</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -12074,15 +12486,16 @@
         <v>16</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="L220" s="4"/>
+    </row>
+    <row r="221" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>306</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -12109,15 +12522,16 @@
         <v>16</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="L221" s="4"/>
+    </row>
+    <row r="222" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>307</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C222" s="4">
         <v>0.43</v>
@@ -12144,15 +12558,16 @@
         <v>16</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="L222" s="4"/>
+    </row>
+    <row r="223" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>308</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C223" s="4">
         <v>0.43</v>
@@ -12179,15 +12594,16 @@
         <v>16</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="L223" s="4"/>
+    </row>
+    <row r="224" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>309</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C224" s="4">
         <v>0.43</v>
@@ -12214,15 +12630,16 @@
         <v>16</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="L224" s="4"/>
+    </row>
+    <row r="225" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>310</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C225" s="4">
         <v>0.36</v>
@@ -12249,15 +12666,16 @@
         <v>16</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>311</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C226" s="4">
         <v>149.43</v>
@@ -12284,15 +12702,16 @@
         <v>16</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="L226" s="4"/>
+    </row>
+    <row r="227" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>312</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C227" s="6">
         <v>2.7</v>
@@ -12319,15 +12738,16 @@
         <v>16</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="L227" s="11"/>
+    </row>
+    <row r="228" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>257</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C228" s="8">
         <v>130</v>
@@ -12356,13 +12776,14 @@
       <c r="K228" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L228" s="11"/>
+    </row>
+    <row r="229" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>258</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C229" s="4">
         <v>8.6999999999999993</v>
@@ -12391,13 +12812,14 @@
       <c r="K229" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L229" s="4"/>
+    </row>
+    <row r="230" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>259</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C230" s="4">
         <v>8.08</v>
@@ -12424,15 +12846,16 @@
         <v>16</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="L230" s="4"/>
+    </row>
+    <row r="231" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>260</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C231" s="4">
         <v>1</v>
@@ -12459,15 +12882,16 @@
         <v>16</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="L231" s="4"/>
+    </row>
+    <row r="232" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>261</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C232" s="4">
         <v>4.24</v>
@@ -12494,15 +12918,16 @@
         <v>16</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="L232" s="4"/>
+    </row>
+    <row r="233" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>262</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C233" s="4">
         <v>3.59</v>
@@ -12526,18 +12951,19 @@
         <v>15</v>
       </c>
       <c r="J233" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K233" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L233" s="4"/>
+    </row>
+    <row r="234" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>263</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C234" s="4">
         <v>9.1999999999999993</v>
@@ -12564,15 +12990,16 @@
         <v>16</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="L234" s="4"/>
+    </row>
+    <row r="235" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>264</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C235" s="4">
         <v>2.89</v>
@@ -12599,15 +13026,16 @@
         <v>16</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="L235" s="4"/>
+    </row>
+    <row r="236" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>265</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C236" s="4">
         <v>2.89</v>
@@ -12634,15 +13062,16 @@
         <v>16</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="L236" s="4"/>
+    </row>
+    <row r="237" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>266</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C237" s="4">
         <v>10.59</v>
@@ -12666,18 +13095,19 @@
         <v>15</v>
       </c>
       <c r="J237" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K237" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L237" s="4"/>
+    </row>
+    <row r="238" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>267</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C238" s="4">
         <v>31.47</v>
@@ -12704,15 +13134,16 @@
         <v>16</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="L238" s="4"/>
+    </row>
+    <row r="239" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>268</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C239" s="4">
         <v>1.4</v>
@@ -12741,13 +13172,14 @@
       <c r="K239" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L239" s="4"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>269</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C240" s="4">
         <v>1.8</v>
@@ -12774,15 +13206,16 @@
         <v>16</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="L240" s="4"/>
+    </row>
+    <row r="241" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>270</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C241" s="4">
         <v>1.18</v>
@@ -12809,15 +13242,16 @@
         <v>16</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>271</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C242" s="4">
         <v>47.1</v>
@@ -12846,13 +13280,14 @@
       <c r="K242" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L242" s="4"/>
+    </row>
+    <row r="243" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>272</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C243" s="4">
         <v>0.89</v>
@@ -12881,13 +13316,14 @@
       <c r="K243" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L243" s="4"/>
+    </row>
+    <row r="244" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>273</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C244" s="4">
         <v>2.27</v>
@@ -12914,15 +13350,16 @@
         <v>16</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="L244" s="4"/>
+    </row>
+    <row r="245" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>274</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C245" s="4">
         <v>1.964</v>
@@ -12949,15 +13386,16 @@
         <v>26</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="L245" s="4"/>
+    </row>
+    <row r="246" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>275</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C246" s="4">
         <v>0.19</v>
@@ -12984,15 +13422,16 @@
         <v>16</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+      <c r="L246" s="4"/>
+    </row>
+    <row r="247" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>276</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C247" s="4">
         <v>0.39</v>
@@ -13019,15 +13458,16 @@
         <v>16</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="L247" s="4"/>
+    </row>
+    <row r="248" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>277</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C248" s="4">
         <v>0.28000000000000003</v>
@@ -13054,15 +13494,16 @@
         <v>16</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="L248" s="4"/>
+    </row>
+    <row r="249" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>278</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>479</v>
+        <v>577</v>
       </c>
       <c r="C249" s="4">
         <v>1.57</v>
@@ -13089,15 +13530,16 @@
         <v>16</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="L249" s="4"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>279</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C250" s="4">
         <v>0.55300000000000005</v>
@@ -13126,13 +13568,14 @@
       <c r="K250" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L250" s="4"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>280</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C251" s="4">
         <v>0.55400000000000005</v>
@@ -13161,13 +13604,14 @@
       <c r="K251" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L251" s="4"/>
+    </row>
+    <row r="252" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>281</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -13194,15 +13638,16 @@
         <v>16</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+      <c r="L252" s="4"/>
+    </row>
+    <row r="253" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>282</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C253" s="6">
         <v>5</v>
@@ -13229,8 +13674,9 @@
         <v>16</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>483</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="L253" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13246,84 +13692,94 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M2" t="s">
+        <v>528</v>
+      </c>
+      <c r="N2" t="s">
         <v>530</v>
       </c>
-      <c r="N2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C3">
         <v>391</v>
@@ -13335,7 +13791,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>30.08</v>
@@ -13350,7 +13806,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L3">
         <v>-32.020000000000003</v>
@@ -13361,13 +13817,16 @@
       <c r="N3">
         <v>930</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C4">
         <v>16.64</v>
@@ -13379,7 +13838,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -13394,7 +13853,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L4">
         <v>-33.32</v>
@@ -13405,13 +13864,16 @@
       <c r="N4">
         <v>1089</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C5">
         <v>559</v>
@@ -13423,7 +13885,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>26.8</v>
@@ -13438,7 +13900,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L5">
         <v>-37</v>
@@ -13449,13 +13911,16 @@
       <c r="N5">
         <v>779</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -13467,7 +13932,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>67</v>
@@ -13482,7 +13947,7 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L6">
         <v>-35.130000000000003</v>
@@ -13493,13 +13958,16 @@
       <c r="N6">
         <v>1117</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C7">
         <v>606</v>
@@ -13511,7 +13979,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>24.18</v>
@@ -13526,7 +13994,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L7">
         <v>-37.979999999999997</v>
@@ -13537,13 +14005,16 @@
       <c r="N7">
         <v>996</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C8">
         <v>760</v>
@@ -13555,7 +14026,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>13.3</v>
@@ -13570,7 +14041,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L8">
         <v>-38.15</v>
@@ -13581,13 +14052,16 @@
       <c r="N8">
         <v>995</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C9">
         <v>1135.7</v>
@@ -13599,7 +14073,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -13614,7 +14088,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L9">
         <v>-36.979999999999997</v>
@@ -13625,13 +14099,16 @@
       <c r="N9">
         <v>726</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C10">
         <v>502</v>
@@ -13643,7 +14120,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>19.84</v>
@@ -13658,7 +14135,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L10">
         <v>-38.26</v>
@@ -13669,13 +14146,16 @@
       <c r="N10">
         <v>987</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C11">
         <v>673</v>
@@ -13687,7 +14167,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>8.32</v>
@@ -13702,7 +14182,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L11">
         <v>-35.19</v>
@@ -13713,13 +14193,16 @@
       <c r="N11">
         <v>952</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C12">
         <v>390</v>
@@ -13731,7 +14214,7 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>27.5</v>
@@ -13746,7 +14229,7 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L12">
         <v>-35.53</v>
@@ -13757,13 +14240,16 @@
       <c r="N12">
         <v>1018</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C13">
         <v>3.2</v>
@@ -13775,7 +14261,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>88</v>
@@ -13790,7 +14276,7 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L13">
         <v>-37.29</v>
@@ -13801,57 +14287,69 @@
       <c r="N13">
         <v>953</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="O13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>294</v>
       </c>
-      <c r="B14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="12">
         <v>1.95</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>760</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
-        <v>533</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12">
         <v>78</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>-66</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K14" t="s">
-        <v>536</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L14" s="12">
         <v>-35.119999999999997</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="12">
         <v>149.35</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="12">
         <v>900</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="12">
+        <v>6</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C15">
         <v>89</v>
@@ -13863,7 +14361,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>58</v>
@@ -13878,7 +14376,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L15">
         <v>-38.32</v>
@@ -13889,13 +14387,16 @@
       <c r="N15">
         <v>827</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C16">
         <v>243</v>
@@ -13907,7 +14408,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>15.17</v>
@@ -13922,7 +14423,7 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L16">
         <v>-34.700000000000003</v>
@@ -13933,13 +14434,16 @@
       <c r="N16">
         <v>1006</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>297</v>
       </c>
       <c r="B17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C17">
         <v>26.35</v>
@@ -13951,7 +14455,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G17">
         <v>33.57</v>
@@ -13966,7 +14470,7 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L17">
         <v>-33.700000000000003</v>
@@ -13977,13 +14481,16 @@
       <c r="N17">
         <v>1006</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>298</v>
       </c>
       <c r="B18" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C18">
         <f>196.4/100</f>
@@ -13996,7 +14503,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <v>60.9</v>
@@ -14011,7 +14518,7 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L18">
         <v>-33.810141399699802</v>
@@ -14019,13 +14526,16 @@
       <c r="M18">
         <v>116.003923121299</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>299</v>
       </c>
       <c r="B19" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C19">
         <v>14500</v>
@@ -14037,7 +14547,7 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>-50</v>
@@ -14052,7 +14562,7 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L19">
         <v>16.433</v>
@@ -14063,16 +14573,409 @@
       <c r="N19">
         <v>1643</v>
       </c>
-      <c r="O19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>300</v>
       </c>
+      <c r="B20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20">
+        <v>179752</v>
+      </c>
+      <c r="D20">
+        <v>1770</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
       <c r="K20" t="s">
+        <v>564</v>
+      </c>
+      <c r="L20">
+        <v>22.88</v>
+      </c>
+      <c r="M20">
+        <v>113.5</v>
+      </c>
+      <c r="N20">
+        <v>1200</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
         <v>552</v>
+      </c>
+      <c r="C21">
+        <v>3.44</v>
+      </c>
+      <c r="D21">
+        <v>702.6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>-53</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>560</v>
+      </c>
+      <c r="L21">
+        <v>-33.295999999999999</v>
+      </c>
+      <c r="M21">
+        <v>116.41</v>
+      </c>
+      <c r="N21">
+        <v>1436.4</v>
+      </c>
+      <c r="O21">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>304</v>
+      </c>
+      <c r="B22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22">
+        <v>3.1</v>
+      </c>
+      <c r="D22">
+        <v>1282.4000000000001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>-78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>560</v>
+      </c>
+      <c r="L22">
+        <v>-45.713000000000001</v>
+      </c>
+      <c r="M22">
+        <v>169.75</v>
+      </c>
+      <c r="N22">
+        <v>615.5</v>
+      </c>
+      <c r="O22">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23">
+        <v>17299</v>
+      </c>
+      <c r="D23">
+        <v>690</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>-25</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>568</v>
+      </c>
+      <c r="L23">
+        <v>-19</v>
+      </c>
+      <c r="M23">
+        <v>145</v>
+      </c>
+      <c r="N23">
+        <v>1930</v>
+      </c>
+      <c r="O23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>567</v>
+      </c>
+      <c r="C24">
+        <v>16440</v>
+      </c>
+      <c r="D24">
+        <v>650</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>-45</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>568</v>
+      </c>
+      <c r="L24">
+        <v>-24.5</v>
+      </c>
+      <c r="M24">
+        <v>148.5</v>
+      </c>
+      <c r="N24">
+        <v>1680</v>
+      </c>
+      <c r="O24">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>307</v>
+      </c>
+      <c r="B25" t="s">
+        <v>570</v>
+      </c>
+      <c r="C25">
+        <v>33000</v>
+      </c>
+      <c r="D25">
+        <v>1875</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>-50</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>572</v>
+      </c>
+      <c r="L25">
+        <v>-10.87</v>
+      </c>
+      <c r="M25">
+        <v>61.94</v>
+      </c>
+      <c r="N25">
+        <v>1200</v>
+      </c>
+      <c r="O25">
+        <v>22</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26">
+        <f>11.7*10000/10^6</f>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D26">
+        <v>720</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>-100</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>574</v>
+      </c>
+      <c r="L26">
+        <v>-24.81</v>
+      </c>
+      <c r="M26">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="N26">
+        <v>2133</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>309</v>
+      </c>
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>1300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>-75</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L27">
+        <v>-32.630000000000003</v>
+      </c>
+      <c r="M27">
+        <v>116.1</v>
+      </c>
+      <c r="N27">
+        <v>1600</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C1696-5A98-4DDD-92EB-EB24CB3F3E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D11CC-F4F8-43FE-8463-A2D92DF65C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21280" yWindow="3100" windowWidth="14400" windowHeight="8300" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="582">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1819,9 +1819,6 @@
     <t>Tierkloof</t>
   </si>
   <si>
-    <t>Ruprecht et al. 1991</t>
-  </si>
-  <si>
     <t>unclear where this is? Not in Ruprecht and Schofield (1991)</t>
   </si>
   <si>
@@ -1829,6 +1826,9 @@
   </si>
   <si>
     <t>Approximate location using original report (Schneider &amp; Ayer 1961) and google maps</t>
+  </si>
+  <si>
+    <t>willem</t>
   </si>
 </sst>
 </file>
@@ -1959,6 +1959,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1971,7 +1972,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,54 +2295,54 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4489,62 +4489,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="10" t="s">
         <v>530</v>
       </c>
@@ -4667,10 +4667,10 @@
       <c r="K5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <v>34.790599999999998</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <v>-93.024600000000007</v>
       </c>
       <c r="O5">
@@ -4712,10 +4712,10 @@
         <v>129</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <v>34.790599999999998</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="13">
         <v>-93.024600000000007</v>
       </c>
       <c r="O6">
@@ -4793,19 +4793,19 @@
         <v>135</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4987,6 +4987,9 @@
         <v>143</v>
       </c>
       <c r="L13" s="4"/>
+      <c r="P13" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -5096,7 +5099,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>76</v>
       </c>
@@ -5132,7 +5135,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>77</v>
       </c>
@@ -5167,8 +5170,11 @@
         <v>153</v>
       </c>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="51" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>78</v>
       </c>
@@ -5204,7 +5210,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -5240,7 +5246,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>80</v>
       </c>
@@ -5276,7 +5282,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>81</v>
       </c>
@@ -5312,7 +5318,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>82</v>
       </c>
@@ -5348,7 +5354,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>83</v>
       </c>
@@ -5383,8 +5389,11 @@
         <v>143</v>
       </c>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>84</v>
       </c>
@@ -5420,7 +5429,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>85</v>
       </c>
@@ -5456,7 +5465,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>86</v>
       </c>
@@ -5492,7 +5501,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>87</v>
       </c>
@@ -5528,7 +5537,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>88</v>
       </c>
@@ -5564,7 +5573,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>89</v>
       </c>
@@ -5600,7 +5609,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>90</v>
       </c>
@@ -5636,7 +5645,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>91</v>
       </c>
@@ -5995,6 +6004,9 @@
         <v>192</v>
       </c>
       <c r="L41" s="4"/>
+      <c r="O41" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6073,7 +6085,7 @@
         <v>-75.409262268186097</v>
       </c>
       <c r="P43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
@@ -7998,7 +8010,7 @@
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>156</v>
       </c>
@@ -8034,7 +8046,7 @@
       </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>157</v>
       </c>
@@ -8070,7 +8082,7 @@
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>158</v>
       </c>
@@ -8106,7 +8118,7 @@
       </c>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>159</v>
       </c>
@@ -8142,7 +8154,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>160</v>
       </c>
@@ -8178,7 +8190,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>161</v>
       </c>
@@ -8214,7 +8226,7 @@
       </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>162</v>
       </c>
@@ -8250,7 +8262,7 @@
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>163</v>
       </c>
@@ -8286,7 +8298,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -8322,7 +8334,7 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -8358,7 +8370,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -8394,7 +8406,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -8428,9 +8440,20 @@
       <c r="K108" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L108">
+        <v>-32.630000000000003</v>
+      </c>
+      <c r="M108">
+        <v>116.1</v>
+      </c>
+      <c r="N108">
+        <v>1600</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -8466,7 +8489,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -8502,7 +8525,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>170</v>
       </c>
@@ -8538,7 +8561,7 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>171</v>
       </c>
@@ -13698,10 +13721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13710,54 +13733,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" t="s">
         <v>527</v>
       </c>
@@ -14929,53 +14952,6 @@
       </c>
       <c r="Q26" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>309</v>
-      </c>
-      <c r="B27" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27">
-        <v>0.8</v>
-      </c>
-      <c r="D27">
-        <v>1300</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>-75</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s">
-        <v>578</v>
-      </c>
-      <c r="L27">
-        <v>-32.630000000000003</v>
-      </c>
-      <c r="M27">
-        <v>116.1</v>
-      </c>
-      <c r="N27">
-        <v>1600</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D11CC-F4F8-43FE-8463-A2D92DF65C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68F961-26BF-49CE-B72E-630680C01386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="586">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1829,6 +1829,18 @@
   </si>
   <si>
     <t>willem</t>
+  </si>
+  <si>
+    <t>coordinates from Google maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference should be Bosch, J.M., Hewlett, J.D., 1982. A review of catchment experiments to determine the effect of vegetation changes on water yield and evapotranspiration. Journal of Hydrology, 55: 3-23. </t>
+  </si>
+  <si>
+    <t>duplicate of 274</t>
+  </si>
+  <si>
+    <t>coordinates guessed from google maps</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1972,6 +1984,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2288,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4489,11 +4502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L231" sqref="L231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
@@ -13233,7 +13249,7 @@
       </c>
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>270</v>
       </c>
@@ -13269,7 +13285,7 @@
       </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>271</v>
       </c>
@@ -13305,7 +13321,7 @@
       </c>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>272</v>
       </c>
@@ -13341,7 +13357,7 @@
       </c>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>273</v>
       </c>
@@ -13376,8 +13392,20 @@
         <v>469</v>
       </c>
       <c r="L244" s="4"/>
-    </row>
-    <row r="245" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M244">
+        <v>33.708252528911899</v>
+      </c>
+      <c r="N244">
+        <v>-109.24261142068301</v>
+      </c>
+      <c r="O244">
+        <v>8</v>
+      </c>
+      <c r="P244" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>274</v>
       </c>
@@ -13412,8 +13440,17 @@
         <v>471</v>
       </c>
       <c r="L245" s="4"/>
-    </row>
-    <row r="246" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M245" s="18">
+        <v>-33.810141399699802</v>
+      </c>
+      <c r="N245" s="18">
+        <v>116.003923121299</v>
+      </c>
+      <c r="O245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>275</v>
       </c>
@@ -13448,8 +13485,20 @@
         <v>473</v>
       </c>
       <c r="L246" s="4"/>
-    </row>
-    <row r="247" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="M246">
+        <v>33.828561360954403</v>
+      </c>
+      <c r="N246">
+        <v>-111.1483972069</v>
+      </c>
+      <c r="O246">
+        <v>10</v>
+      </c>
+      <c r="P246" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>276</v>
       </c>
@@ -13484,8 +13533,20 @@
         <v>475</v>
       </c>
       <c r="L247" s="4"/>
-    </row>
-    <row r="248" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="M247">
+        <v>33.828561360954403</v>
+      </c>
+      <c r="N247">
+        <v>-111.1483972069</v>
+      </c>
+      <c r="O247">
+        <v>10</v>
+      </c>
+      <c r="P247" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>277</v>
       </c>
@@ -13520,8 +13581,20 @@
         <v>477</v>
       </c>
       <c r="L248" s="4"/>
-    </row>
-    <row r="249" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M248">
+        <v>33.828561360954403</v>
+      </c>
+      <c r="N248">
+        <v>-111.1483972069</v>
+      </c>
+      <c r="O248">
+        <v>10</v>
+      </c>
+      <c r="P248" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>278</v>
       </c>
@@ -13555,9 +13628,22 @@
       <c r="K249" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="L249" s="4"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M249">
+        <f>-33-57/60</f>
+        <v>-33.950000000000003</v>
+      </c>
+      <c r="N249">
+        <f>-18-15/60</f>
+        <v>-18.25</v>
+      </c>
+      <c r="O249">
+        <v>8</v>
+      </c>
+      <c r="P249" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>279</v>
       </c>
@@ -13592,8 +13678,20 @@
         <v>188</v>
       </c>
       <c r="L250" s="4"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M250">
+        <v>-33.373992000000001</v>
+      </c>
+      <c r="N250">
+        <v>148.997547</v>
+      </c>
+      <c r="O250">
+        <v>9</v>
+      </c>
+      <c r="P250" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>280</v>
       </c>
@@ -13628,8 +13726,20 @@
         <v>188</v>
       </c>
       <c r="L251" s="4"/>
-    </row>
-    <row r="252" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="M251">
+        <v>-33.373992000000001</v>
+      </c>
+      <c r="N251">
+        <v>148.997547</v>
+      </c>
+      <c r="O251">
+        <v>7</v>
+      </c>
+      <c r="P251" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>281</v>
       </c>
@@ -13664,8 +13774,19 @@
         <v>481</v>
       </c>
       <c r="L252" s="4"/>
-    </row>
-    <row r="253" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M252">
+        <f>49+39/60</f>
+        <v>49.65</v>
+      </c>
+      <c r="N252">
+        <f>119+24/60</f>
+        <v>119.4</v>
+      </c>
+      <c r="O252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>282</v>
       </c>
@@ -13700,6 +13821,17 @@
         <v>481</v>
       </c>
       <c r="L253" s="11"/>
+      <c r="M253">
+        <f>49+39/60</f>
+        <v>49.65</v>
+      </c>
+      <c r="N253">
+        <f>119+24/60</f>
+        <v>119.4</v>
+      </c>
+      <c r="O253">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13723,8 +13855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14508,49 +14640,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>298</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="12">
         <f>196.4/100</f>
         <v>1.964</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>880</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="12">
         <v>60.9</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>-92</v>
       </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="12">
         <v>-33.810141399699802</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="12">
         <v>116.003923121299</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="12">
         <v>10</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Documents\GitHub\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68F961-26BF-49CE-B72E-630680C01386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811EB85-DB11-4D56-975A-A428E6802926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="655">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1842,12 +1842,224 @@
   <si>
     <t>coordinates guessed from google maps</t>
   </si>
+  <si>
+    <t>Latitiude</t>
+  </si>
+  <si>
+    <t>Location Details</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>Other details</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>1988 -2000</t>
+  </si>
+  <si>
+    <t>other rivers</t>
+  </si>
+  <si>
+    <t>all  same lat long?</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>in Amazon</t>
+  </si>
+  <si>
+    <t>cound not find location differences btw #5</t>
+  </si>
+  <si>
+    <t>cound not find location differences btw #10</t>
+  </si>
+  <si>
+    <t>Wrong name, Tapajós river</t>
+  </si>
+  <si>
+    <t>1970-1990</t>
+  </si>
+  <si>
+    <t>Did not find forest variation reported value</t>
+  </si>
+  <si>
+    <t>1962–2005</t>
+  </si>
+  <si>
+    <t>1950-1999</t>
+  </si>
+  <si>
+    <t>1950-2000</t>
+  </si>
+  <si>
+    <t>1950-2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defforestation (1968–1984) </t>
+  </si>
+  <si>
+    <t>reforestation (1985–2006)</t>
+  </si>
+  <si>
+    <t>1974–2006</t>
+  </si>
+  <si>
+    <t>1956-1983 and 1984-2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53.676555°</t>
+  </si>
+  <si>
+    <t>1969 - 1979</t>
+  </si>
+  <si>
+    <t>Calibration (1981–1990),Validation (1991–2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aproximate loction defined by Roche's map in Amazon Region in French Guyana. Is is Amazon region?
+</t>
+  </si>
+  <si>
+    <t>1976 -1978</t>
+  </si>
+  <si>
+    <t>These investigations were carried out on 10 watersheds of 1 to 1.5 ha each. These were: (i) natural regrowth without buming existing vegetation, (ii} natural regrowth after burning  existing vegetation cover, (iii) Pinewood plantation, (iv) eucalyptus plantation, (v) citrus plantation, (vi) and (viii) two different pastures, and (viii) traditional farming</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>1975-1993</t>
+  </si>
+  <si>
+    <t>Manuel Diaz Basin</t>
+  </si>
+  <si>
+    <t>1970/71 -1999/00.</t>
+  </si>
+  <si>
+    <t>1960–2000</t>
+  </si>
+  <si>
+    <t>1988-1998</t>
+  </si>
+  <si>
+    <t>1988-1999</t>
+  </si>
+  <si>
+    <t>1988-2000</t>
+  </si>
+  <si>
+    <t>1988-2001</t>
+  </si>
+  <si>
+    <t>1988-2002</t>
+  </si>
+  <si>
+    <t>1986-1993</t>
+  </si>
+  <si>
+    <t>1997-2008</t>
+  </si>
+  <si>
+    <t>1963-2007</t>
+  </si>
+  <si>
+    <t>1950-1955</t>
+  </si>
+  <si>
+    <t>Data from plot 2</t>
+  </si>
+  <si>
+    <t>1953-2003</t>
+  </si>
+  <si>
+    <t>1970-1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL </t>
+  </si>
+  <si>
+    <t>1980–2010</t>
+  </si>
+  <si>
+    <t>1970-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1970-1996 </t>
+  </si>
+  <si>
+    <t>Did not find reported values</t>
+  </si>
+  <si>
+    <t>1959– 2000</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006657</t>
+  </si>
+  <si>
+    <t>Whole catchment studied in Zhang 2008a (repetitive?)</t>
+  </si>
+  <si>
+    <t>1957– 2000</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006658</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006659</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006660</t>
+  </si>
+  <si>
+    <t>1956– 2000</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006661</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006662</t>
+  </si>
+  <si>
+    <t>Approximate location from P. Rustomji et al 2008  (Catchment number) https://doi.org/10.1029/2007WR006663</t>
+  </si>
+  <si>
+    <t>1970–1996</t>
+  </si>
+  <si>
+    <t>Situated on the Upper Minjiang River of Yangtze River basin</t>
+  </si>
+  <si>
+    <t>1958- 2008</t>
+  </si>
+  <si>
+    <t>Wrong spelled name, it is Wei River basin</t>
+  </si>
+  <si>
+    <t>name not found, it is Kejie watershed
+in the eastern Himalayas. Change citation to: https://doi.org/10.1016/j.jhydrol.2010.06.010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1890,6 +2102,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1905,7 +2123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1931,11 +2149,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1972,6 +2199,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1984,7 +2212,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2299,65 +2545,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="L1" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2391,8 +2669,27 @@
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>102</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+    </row>
+    <row r="4" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2426,8 +2723,23 @@
       <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L4" s="19">
+        <v>5.0125000000000002</v>
+      </c>
+      <c r="M4" s="19">
+        <v>102</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2461,8 +2773,23 @@
       <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L5" s="19">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="M5" s="19">
+        <v>110.66666666666667</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2496,8 +2823,25 @@
       <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L6" s="19">
+        <v>42.399205000000002</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1.1273260000000001</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2531,8 +2875,25 @@
       <c r="K7" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L7" s="19">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="M7" s="19">
+        <v>-75</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2566,8 +2927,23 @@
       <c r="K8" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L8" s="19">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="M8" s="19">
+        <v>-75</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2601,8 +2977,23 @@
       <c r="K9" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L9" s="19">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="M9" s="19">
+        <v>-75</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+    </row>
+    <row r="10" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2636,8 +3027,23 @@
       <c r="K10" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L10" s="19">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="M10" s="19">
+        <v>-75</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2671,8 +3077,23 @@
       <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L11" s="19">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="M11" s="19">
+        <v>-75</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+    </row>
+    <row r="12" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2706,8 +3127,23 @@
       <c r="K12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L12" s="19">
+        <v>32.133147999999998</v>
+      </c>
+      <c r="M12" s="19">
+        <v>102.52542200000001</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2741,8 +3177,29 @@
       <c r="K13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L13" s="19">
+        <v>-2.0968719999999998</v>
+      </c>
+      <c r="M13" s="19">
+        <v>-67.126231000000004</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O13" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2776,8 +3233,27 @@
       <c r="K14" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L14" s="19">
+        <v>-8.115793</v>
+      </c>
+      <c r="M14" s="19">
+        <v>-77.984307000000001</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O14" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22" ht="41" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2811,8 +3287,29 @@
       <c r="K15" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L15" s="19">
+        <v>-2.6398830000000002</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-66.321481000000006</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O15" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:22" ht="41" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2846,8 +3343,29 @@
       <c r="K16" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L16" s="19">
+        <v>-2.6398830000000002</v>
+      </c>
+      <c r="M16" s="19">
+        <v>-66.321481000000006</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O16" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2881,8 +3399,29 @@
       <c r="K17" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L17" s="19">
+        <v>-5.2927960000000001</v>
+      </c>
+      <c r="M17" s="19">
+        <v>-56.925654999999999</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O17" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2916,8 +3455,27 @@
       <c r="K18" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L18" s="19">
+        <v>-7.4629370000000002</v>
+      </c>
+      <c r="M18" s="19">
+        <v>-52.655372</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O18" s="23">
+        <v>2000</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2951,8 +3509,29 @@
       <c r="K19" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L19" s="19">
+        <v>-15</v>
+      </c>
+      <c r="M19" s="19">
+        <v>-35</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2986,8 +3565,23 @@
       <c r="K20" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L20" s="19">
+        <v>-13</v>
+      </c>
+      <c r="M20" s="19">
+        <v>-48</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+    </row>
+    <row r="21" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -3021,8 +3615,23 @@
       <c r="K21" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L21" s="19">
+        <v>47.5</v>
+      </c>
+      <c r="M21" s="19">
+        <v>-122.5</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+    </row>
+    <row r="22" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -3056,8 +3665,23 @@
       <c r="K22" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L22" s="19">
+        <v>42.405555555555551</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1.6852777777777779</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+    </row>
+    <row r="23" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -3091,8 +3715,27 @@
       <c r="K23" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L23" s="19">
+        <v>-38</v>
+      </c>
+      <c r="M23" s="19">
+        <v>-72</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+    </row>
+    <row r="24" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -3126,8 +3769,25 @@
       <c r="K24" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L24" s="19">
+        <v>37.986488999999999</v>
+      </c>
+      <c r="M24" s="19">
+        <v>109.849656</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O24" s="23"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+    </row>
+    <row r="25" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -3161,8 +3821,27 @@
       <c r="K25" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L25" s="19">
+        <v>-6.5748249999999997</v>
+      </c>
+      <c r="M25" s="19">
+        <v>-69.428865000000002</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+    </row>
+    <row r="26" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -3196,8 +3875,27 @@
       <c r="K26" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L26" s="19">
+        <v>-6.8399260000000002</v>
+      </c>
+      <c r="M26" s="19">
+        <v>-62.310093999999999</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+    </row>
+    <row r="27" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3231,8 +3929,27 @@
       <c r="K27" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L27" s="19">
+        <v>-7.6457350000000002</v>
+      </c>
+      <c r="M27" s="19">
+        <v>-66.358485000000002</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+    </row>
+    <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -3264,8 +3981,27 @@
       <c r="K28" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L28" s="19">
+        <v>26.5</v>
+      </c>
+      <c r="M28" s="19">
+        <v>116</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+    </row>
+    <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -3299,8 +4035,27 @@
       <c r="K29" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="19">
+        <v>26.5</v>
+      </c>
+      <c r="M29" s="19">
+        <v>116</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+    </row>
+    <row r="30" spans="1:22" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -3332,8 +4087,27 @@
       <c r="K30" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L30" s="19">
+        <v>25</v>
+      </c>
+      <c r="M30" s="19">
+        <v>99.333332999999996</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+    </row>
+    <row r="31" spans="1:22" ht="111" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -3367,8 +4141,29 @@
       <c r="K31" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="20">
+        <v>41</v>
+      </c>
+      <c r="M31" s="20">
+        <v>117</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -3402,8 +4197,27 @@
       <c r="K32" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="M32" s="19">
+        <v>-121.783788</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+    </row>
+    <row r="33" spans="1:22" ht="41" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -3437,8 +4251,27 @@
       <c r="K33" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L33" s="19">
+        <v>11.002777780000001</v>
+      </c>
+      <c r="M33" s="19">
+        <v>106.01</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+    </row>
+    <row r="34" spans="1:22" ht="300" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -3472,8 +4305,29 @@
       <c r="K34" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L34" s="19">
+        <v>-14.917681</v>
+      </c>
+      <c r="M34" s="19">
+        <v>-51.149718999999997</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+    </row>
+    <row r="35" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -3507,8 +4361,29 @@
       <c r="K35" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L35" s="19">
+        <v>-31.533333333333335</v>
+      </c>
+      <c r="M35" s="19">
+        <v>-55.68333333333333</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+    </row>
+    <row r="36" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -3540,8 +4415,27 @@
       <c r="K36" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L36" s="19">
+        <v>-37.353330999999997</v>
+      </c>
+      <c r="M36" s="19">
+        <v>145.14536200000001</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+    </row>
+    <row r="37" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -3573,8 +4467,27 @@
       <c r="K37" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L37" s="19">
+        <v>-37.011122999999998</v>
+      </c>
+      <c r="M37" s="19">
+        <v>146.38759999999999</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+    </row>
+    <row r="38" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -3608,8 +4521,27 @@
       <c r="K38" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L38" s="19">
+        <v>-33.236139000000001</v>
+      </c>
+      <c r="M38" s="19">
+        <v>146.41505900000001</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+    </row>
+    <row r="39" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -3643,8 +4575,27 @@
       <c r="K39" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L39" s="19">
+        <v>-31.597829999999998</v>
+      </c>
+      <c r="M39" s="19">
+        <v>147.78577000000001</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+    </row>
+    <row r="40" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -3678,8 +4629,27 @@
       <c r="K40" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L40" s="19">
+        <v>-35.866498999999997</v>
+      </c>
+      <c r="M40" s="19">
+        <v>144.31499099999999</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+    </row>
+    <row r="41" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -3713,8 +4683,27 @@
       <c r="K41" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L41" s="19">
+        <v>-34.888523999999997</v>
+      </c>
+      <c r="M41" s="19">
+        <v>146.58919499999999</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+    </row>
+    <row r="42" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -3748,8 +4737,27 @@
       <c r="K42" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L42" s="19">
+        <v>-37.149262999999998</v>
+      </c>
+      <c r="M42" s="19">
+        <v>147.299948</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+    </row>
+    <row r="43" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -3783,8 +4791,27 @@
       <c r="K43" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L43" s="19">
+        <v>43</v>
+      </c>
+      <c r="M43" s="19">
+        <v>-115</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+    </row>
+    <row r="44" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -3818,8 +4845,27 @@
       <c r="K44" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L44" s="19">
+        <v>30.784645000000001</v>
+      </c>
+      <c r="M44" s="19">
+        <v>113.82366500000001</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+    </row>
+    <row r="45" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -3853,8 +4899,27 @@
       <c r="K45" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L45" s="19">
+        <v>116</v>
+      </c>
+      <c r="M45" s="19">
+        <v>42</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+    </row>
+    <row r="46" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -3888,8 +4953,29 @@
       <c r="K46" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L46" s="19">
+        <v>53.675395000000002</v>
+      </c>
+      <c r="M46" s="19">
+        <v>-121.74717099999999</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O46" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+    </row>
+    <row r="47" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3923,8 +5009,27 @@
       <c r="K47" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L47" s="19">
+        <v>122.5</v>
+      </c>
+      <c r="M47" s="19">
+        <v>54.2</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+    </row>
+    <row r="48" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3958,8 +5063,27 @@
       <c r="K48" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L48" s="19">
+        <v>19.554500999999998</v>
+      </c>
+      <c r="M48" s="19">
+        <v>105.05812</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+    </row>
+    <row r="49" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -3993,8 +5117,27 @@
       <c r="K49" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L49" s="19">
+        <v>38</v>
+      </c>
+      <c r="M49" s="19">
+        <v>100</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+    </row>
+    <row r="50" spans="1:22" ht="30" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -4028,8 +5171,27 @@
       <c r="K50" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L50" s="19">
+        <v>46.966666666666669</v>
+      </c>
+      <c r="M50" s="19">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="O50" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+    </row>
+    <row r="51" spans="1:22" ht="20" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -4063,8 +5225,29 @@
       <c r="K51" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L51" s="19">
+        <v>32</v>
+      </c>
+      <c r="M51" s="19">
+        <v>103</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="O51" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+    </row>
+    <row r="52" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -4098,8 +5281,29 @@
       <c r="K52" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L52" s="19">
+        <v>38</v>
+      </c>
+      <c r="M52" s="19">
+        <v>112</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O52" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="P52" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+    </row>
+    <row r="53" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -4133,8 +5337,29 @@
       <c r="K53" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L53" s="19">
+        <v>39</v>
+      </c>
+      <c r="M53" s="19">
+        <v>111</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="P53" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+    </row>
+    <row r="54" spans="1:22" ht="30" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -4168,8 +5393,29 @@
       <c r="K54" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L54" s="19">
+        <v>37.5</v>
+      </c>
+      <c r="M54" s="19">
+        <v>110</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+    </row>
+    <row r="55" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -4201,8 +5447,29 @@
       <c r="K55" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L55" s="19">
+        <v>37.5</v>
+      </c>
+      <c r="M55" s="19">
+        <v>110</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O55" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="P55" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+    </row>
+    <row r="56" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -4236,8 +5503,29 @@
       <c r="K56" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L56" s="19">
+        <v>40</v>
+      </c>
+      <c r="M56" s="19">
+        <v>110</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O56" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="P56" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+    </row>
+    <row r="57" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -4271,8 +5559,29 @@
       <c r="K57" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L57" s="19">
+        <v>37</v>
+      </c>
+      <c r="M57" s="19">
+        <v>111</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="P57" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+    </row>
+    <row r="58" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -4306,8 +5615,29 @@
       <c r="K58" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L58" s="19">
+        <v>35</v>
+      </c>
+      <c r="M58" s="19">
+        <v>110</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O58" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="P58" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+    </row>
+    <row r="59" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -4339,8 +5669,29 @@
       <c r="K59" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L59" s="19">
+        <v>37.5</v>
+      </c>
+      <c r="M59" s="19">
+        <v>111</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O59" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="P59" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+    </row>
+    <row r="60" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -4374,8 +5725,29 @@
       <c r="K60" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L60" s="19">
+        <v>38</v>
+      </c>
+      <c r="M60" s="19">
+        <v>111</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="P60" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+    </row>
+    <row r="61" spans="1:22" ht="91" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -4409,8 +5781,29 @@
       <c r="K61" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L61" s="19">
+        <v>36</v>
+      </c>
+      <c r="M61" s="19">
+        <v>110</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O61" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="P61" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+    </row>
+    <row r="62" spans="1:22" ht="51" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -4444,8 +5837,29 @@
       <c r="K62" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L62" s="19">
+        <v>32</v>
+      </c>
+      <c r="M62" s="19">
+        <v>103</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O62" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="P62" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+    </row>
+    <row r="63" spans="1:22" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -4479,9 +5893,35 @@
       <c r="K63" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="L63" s="21">
+        <v>34.833333333333336</v>
+      </c>
+      <c r="M63" s="21">
+        <v>108.83333333333333</v>
+      </c>
+      <c r="N63" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O63" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="P63" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
@@ -4502,65 +5942,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="L231" sqref="L231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="10" t="s">
         <v>530</v>
       </c>
@@ -4577,7 +6017,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>62</v>
       </c>
@@ -4613,7 +6053,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>63</v>
       </c>
@@ -4649,7 +6089,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -4693,7 +6133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>65</v>
       </c>
@@ -4738,7 +6178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>66</v>
       </c>
@@ -4774,7 +6214,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>67</v>
       </c>
@@ -4824,7 +6264,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>68</v>
       </c>
@@ -4860,7 +6300,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>69</v>
       </c>
@@ -4896,7 +6336,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>70</v>
       </c>
@@ -4932,7 +6372,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>71</v>
       </c>
@@ -4968,7 +6408,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>72</v>
       </c>
@@ -5007,7 +6447,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>73</v>
       </c>
@@ -5043,7 +6483,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>74</v>
       </c>
@@ -5079,7 +6519,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>75</v>
       </c>
@@ -5115,7 +6555,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>76</v>
       </c>
@@ -5151,7 +6591,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>77</v>
       </c>
@@ -5190,7 +6630,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="40" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>78</v>
       </c>
@@ -5226,7 +6666,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="40" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -5262,7 +6702,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>80</v>
       </c>
@@ -5298,7 +6738,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>81</v>
       </c>
@@ -5334,7 +6774,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>82</v>
       </c>
@@ -5370,7 +6810,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>83</v>
       </c>
@@ -5409,7 +6849,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>84</v>
       </c>
@@ -5445,7 +6885,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>85</v>
       </c>
@@ -5481,7 +6921,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>86</v>
       </c>
@@ -5517,7 +6957,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>87</v>
       </c>
@@ -5553,7 +6993,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>88</v>
       </c>
@@ -5589,7 +7029,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>89</v>
       </c>
@@ -5625,7 +7065,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>90</v>
       </c>
@@ -5661,7 +7101,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>91</v>
       </c>
@@ -5697,7 +7137,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>92</v>
       </c>
@@ -5733,7 +7173,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>93</v>
       </c>
@@ -5769,7 +7209,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>94</v>
       </c>
@@ -5805,7 +7245,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>95</v>
       </c>
@@ -5841,7 +7281,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>96</v>
       </c>
@@ -5877,7 +7317,7 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>97</v>
       </c>
@@ -5913,7 +7353,7 @@
       </c>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>98</v>
       </c>
@@ -5949,7 +7389,7 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>99</v>
       </c>
@@ -5985,7 +7425,7 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>100</v>
       </c>
@@ -6024,7 +7464,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>101</v>
       </c>
@@ -6060,7 +7500,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>102</v>
       </c>
@@ -6104,7 +7544,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>103</v>
       </c>
@@ -6140,7 +7580,7 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>104</v>
       </c>
@@ -6176,7 +7616,7 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>105</v>
       </c>
@@ -6212,7 +7652,7 @@
       </c>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>106</v>
       </c>
@@ -6248,7 +7688,7 @@
       </c>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>107</v>
       </c>
@@ -6284,7 +7724,7 @@
       </c>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>108</v>
       </c>
@@ -6320,7 +7760,7 @@
       </c>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>109</v>
       </c>
@@ -6356,7 +7796,7 @@
       </c>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>110</v>
       </c>
@@ -6392,7 +7832,7 @@
       </c>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>111</v>
       </c>
@@ -6428,7 +7868,7 @@
       </c>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>112</v>
       </c>
@@ -6464,7 +7904,7 @@
       </c>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>113</v>
       </c>
@@ -6500,7 +7940,7 @@
       </c>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>114</v>
       </c>
@@ -6536,7 +7976,7 @@
       </c>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>115</v>
       </c>
@@ -6572,7 +8012,7 @@
       </c>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>116</v>
       </c>
@@ -6608,7 +8048,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>117</v>
       </c>
@@ -6644,7 +8084,7 @@
       </c>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>118</v>
       </c>
@@ -6680,7 +8120,7 @@
       </c>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>119</v>
       </c>
@@ -6716,7 +8156,7 @@
       </c>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>120</v>
       </c>
@@ -6752,7 +8192,7 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>121</v>
       </c>
@@ -6788,7 +8228,7 @@
       </c>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -6824,7 +8264,7 @@
       </c>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -6860,7 +8300,7 @@
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -6896,7 +8336,7 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -6932,7 +8372,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -6968,7 +8408,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -7004,7 +8444,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -7040,7 +8480,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -7076,7 +8516,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -7112,7 +8552,7 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -7162,7 +8602,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -7198,7 +8638,7 @@
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="50" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -7234,7 +8674,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="40" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>134</v>
       </c>
@@ -7270,7 +8710,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>135</v>
       </c>
@@ -7306,7 +8746,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>136</v>
       </c>
@@ -7342,7 +8782,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -7378,7 +8818,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>138</v>
       </c>
@@ -7414,7 +8854,7 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -7450,7 +8890,7 @@
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -7486,7 +8926,7 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -7522,7 +8962,7 @@
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -7558,7 +8998,7 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -7594,7 +9034,7 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6">
         <v>144</v>
       </c>
@@ -7630,7 +9070,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -7666,7 +9106,7 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -7702,7 +9142,7 @@
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>147</v>
       </c>
@@ -7738,7 +9178,7 @@
       </c>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>148</v>
       </c>
@@ -7774,7 +9214,7 @@
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>149</v>
       </c>
@@ -7810,7 +9250,7 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>150</v>
       </c>
@@ -7846,7 +9286,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>151</v>
       </c>
@@ -7882,7 +9322,7 @@
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>152</v>
       </c>
@@ -7918,7 +9358,7 @@
       </c>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>153</v>
       </c>
@@ -7954,7 +9394,7 @@
       </c>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>154</v>
       </c>
@@ -7990,7 +9430,7 @@
       </c>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>155</v>
       </c>
@@ -8026,7 +9466,7 @@
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>156</v>
       </c>
@@ -8062,7 +9502,7 @@
       </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>157</v>
       </c>
@@ -8098,7 +9538,7 @@
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="30" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>158</v>
       </c>
@@ -8134,7 +9574,7 @@
       </c>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>159</v>
       </c>
@@ -8170,7 +9610,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>160</v>
       </c>
@@ -8206,7 +9646,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>161</v>
       </c>
@@ -8242,7 +9682,7 @@
       </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>162</v>
       </c>
@@ -8278,7 +9718,7 @@
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>163</v>
       </c>
@@ -8314,7 +9754,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="30" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -8350,7 +9790,7 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -8386,7 +9826,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -8422,7 +9862,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -8469,7 +9909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -8505,7 +9945,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -8541,7 +9981,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>170</v>
       </c>
@@ -8577,7 +10017,7 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="20" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>171</v>
       </c>
@@ -8613,7 +10053,7 @@
       </c>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6">
         <v>172</v>
       </c>
@@ -8649,7 +10089,7 @@
       </c>
       <c r="L113" s="11"/>
     </row>
-    <row r="114" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>173</v>
       </c>
@@ -8685,7 +10125,7 @@
       </c>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>174</v>
       </c>
@@ -8721,7 +10161,7 @@
       </c>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>175</v>
       </c>
@@ -8757,7 +10197,7 @@
       </c>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>176</v>
       </c>
@@ -8793,7 +10233,7 @@
       </c>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>177</v>
       </c>
@@ -8829,7 +10269,7 @@
       </c>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>178</v>
       </c>
@@ -8865,7 +10305,7 @@
       </c>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>179</v>
       </c>
@@ -8901,7 +10341,7 @@
       </c>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>180</v>
       </c>
@@ -8937,7 +10377,7 @@
       </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>181</v>
       </c>
@@ -8973,7 +10413,7 @@
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>182</v>
       </c>
@@ -9009,7 +10449,7 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>183</v>
       </c>
@@ -9045,7 +10485,7 @@
       </c>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>184</v>
       </c>
@@ -9081,7 +10521,7 @@
       </c>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>185</v>
       </c>
@@ -9117,7 +10557,7 @@
       </c>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>186</v>
       </c>
@@ -9153,7 +10593,7 @@
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>187</v>
       </c>
@@ -9189,7 +10629,7 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>188</v>
       </c>
@@ -9225,7 +10665,7 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>189</v>
       </c>
@@ -9261,7 +10701,7 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>190</v>
       </c>
@@ -9297,7 +10737,7 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>191</v>
       </c>
@@ -9333,7 +10773,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>192</v>
       </c>
@@ -9369,7 +10809,7 @@
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>193</v>
       </c>
@@ -9405,7 +10845,7 @@
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>194</v>
       </c>
@@ -9441,7 +10881,7 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>195</v>
       </c>
@@ -9477,7 +10917,7 @@
       </c>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>196</v>
       </c>
@@ -9513,7 +10953,7 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>197</v>
       </c>
@@ -9549,7 +10989,7 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>198</v>
       </c>
@@ -9585,7 +11025,7 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>199</v>
       </c>
@@ -9621,7 +11061,7 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="6">
         <v>200</v>
       </c>
@@ -9657,7 +11097,7 @@
       </c>
       <c r="L141" s="11"/>
     </row>
-    <row r="142" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>201</v>
       </c>
@@ -9693,7 +11133,7 @@
       </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>202</v>
       </c>
@@ -9729,7 +11169,7 @@
       </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>203</v>
       </c>
@@ -9765,7 +11205,7 @@
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>204</v>
       </c>
@@ -9801,7 +11241,7 @@
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>205</v>
       </c>
@@ -9837,7 +11277,7 @@
       </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>206</v>
       </c>
@@ -9873,7 +11313,7 @@
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>207</v>
       </c>
@@ -9909,7 +11349,7 @@
       </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>208</v>
       </c>
@@ -9945,7 +11385,7 @@
       </c>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>209</v>
       </c>
@@ -9981,7 +11421,7 @@
       </c>
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>210</v>
       </c>
@@ -10017,7 +11457,7 @@
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>211</v>
       </c>
@@ -10053,7 +11493,7 @@
       </c>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>212</v>
       </c>
@@ -10089,7 +11529,7 @@
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>213</v>
       </c>
@@ -10125,7 +11565,7 @@
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>214</v>
       </c>
@@ -10161,7 +11601,7 @@
       </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>215</v>
       </c>
@@ -10197,7 +11637,7 @@
       </c>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>216</v>
       </c>
@@ -10233,7 +11673,7 @@
       </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>217</v>
       </c>
@@ -10269,7 +11709,7 @@
       </c>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>218</v>
       </c>
@@ -10305,7 +11745,7 @@
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>219</v>
       </c>
@@ -10341,7 +11781,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>220</v>
       </c>
@@ -10377,7 +11817,7 @@
       </c>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>221</v>
       </c>
@@ -10413,7 +11853,7 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>222</v>
       </c>
@@ -10449,7 +11889,7 @@
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>223</v>
       </c>
@@ -10485,7 +11925,7 @@
       </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>224</v>
       </c>
@@ -10521,7 +11961,7 @@
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>225</v>
       </c>
@@ -10557,7 +11997,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>226</v>
       </c>
@@ -10593,7 +12033,7 @@
       </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>227</v>
       </c>
@@ -10629,7 +12069,7 @@
       </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6">
         <v>228</v>
       </c>
@@ -10665,7 +12105,7 @@
       </c>
       <c r="L169" s="11"/>
     </row>
-    <row r="170" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>229</v>
       </c>
@@ -10701,7 +12141,7 @@
       </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>230</v>
       </c>
@@ -10737,7 +12177,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>231</v>
       </c>
@@ -10773,7 +12213,7 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>232</v>
       </c>
@@ -10809,7 +12249,7 @@
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>233</v>
       </c>
@@ -10845,7 +12285,7 @@
       </c>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>234</v>
       </c>
@@ -10881,7 +12321,7 @@
       </c>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>235</v>
       </c>
@@ -10917,7 +12357,7 @@
       </c>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>236</v>
       </c>
@@ -10953,7 +12393,7 @@
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>237</v>
       </c>
@@ -10989,7 +12429,7 @@
       </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>238</v>
       </c>
@@ -11025,7 +12465,7 @@
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>239</v>
       </c>
@@ -11061,7 +12501,7 @@
       </c>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>240</v>
       </c>
@@ -11100,7 +12540,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>241</v>
       </c>
@@ -11136,7 +12576,7 @@
       </c>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>242</v>
       </c>
@@ -11172,7 +12612,7 @@
       </c>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>243</v>
       </c>
@@ -11208,7 +12648,7 @@
       </c>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>244</v>
       </c>
@@ -11244,7 +12684,7 @@
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>245</v>
       </c>
@@ -11280,7 +12720,7 @@
       </c>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>246</v>
       </c>
@@ -11316,7 +12756,7 @@
       </c>
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>247</v>
       </c>
@@ -11352,7 +12792,7 @@
       </c>
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>248</v>
       </c>
@@ -11399,7 +12839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>249</v>
       </c>
@@ -11435,7 +12875,7 @@
       </c>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>250</v>
       </c>
@@ -11471,7 +12911,7 @@
       </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>251</v>
       </c>
@@ -11507,7 +12947,7 @@
       </c>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>252</v>
       </c>
@@ -11543,7 +12983,7 @@
       </c>
       <c r="L193" s="4"/>
     </row>
-    <row r="194" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>253</v>
       </c>
@@ -11579,7 +13019,7 @@
       </c>
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>254</v>
       </c>
@@ -11615,7 +13055,7 @@
       </c>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>255</v>
       </c>
@@ -11651,7 +13091,7 @@
       </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6">
         <v>256</v>
       </c>
@@ -11687,7 +13127,7 @@
       </c>
       <c r="L197" s="11"/>
     </row>
-    <row r="198" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>283</v>
       </c>
@@ -11723,7 +13163,7 @@
       </c>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>284</v>
       </c>
@@ -11759,7 +13199,7 @@
       </c>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>285</v>
       </c>
@@ -11795,7 +13235,7 @@
       </c>
       <c r="L200" s="4"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>286</v>
       </c>
@@ -11831,7 +13271,7 @@
       </c>
       <c r="L201" s="4"/>
     </row>
-    <row r="202" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>287</v>
       </c>
@@ -11867,7 +13307,7 @@
       </c>
       <c r="L202" s="4"/>
     </row>
-    <row r="203" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>288</v>
       </c>
@@ -11903,7 +13343,7 @@
       </c>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>289</v>
       </c>
@@ -11939,7 +13379,7 @@
       </c>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>290</v>
       </c>
@@ -11975,7 +13415,7 @@
       </c>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>291</v>
       </c>
@@ -12011,7 +13451,7 @@
       </c>
       <c r="L206" s="4"/>
     </row>
-    <row r="207" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>292</v>
       </c>
@@ -12047,7 +13487,7 @@
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>293</v>
       </c>
@@ -12083,7 +13523,7 @@
       </c>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>294</v>
       </c>
@@ -12119,7 +13559,7 @@
       </c>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>295</v>
       </c>
@@ -12155,7 +13595,7 @@
       </c>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>296</v>
       </c>
@@ -12191,7 +13631,7 @@
       </c>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>297</v>
       </c>
@@ -12227,7 +13667,7 @@
       </c>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>298</v>
       </c>
@@ -12277,7 +13717,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>299</v>
       </c>
@@ -12313,7 +13753,7 @@
       </c>
       <c r="L214" s="4"/>
     </row>
-    <row r="215" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>300</v>
       </c>
@@ -12349,7 +13789,7 @@
       </c>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>301</v>
       </c>
@@ -12385,7 +13825,7 @@
       </c>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>302</v>
       </c>
@@ -12421,7 +13861,7 @@
       </c>
       <c r="L217" s="4"/>
     </row>
-    <row r="218" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>303</v>
       </c>
@@ -12457,7 +13897,7 @@
       </c>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>304</v>
       </c>
@@ -12493,7 +13933,7 @@
       </c>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>305</v>
       </c>
@@ -12529,7 +13969,7 @@
       </c>
       <c r="L220" s="4"/>
     </row>
-    <row r="221" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>306</v>
       </c>
@@ -12565,7 +14005,7 @@
       </c>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>307</v>
       </c>
@@ -12601,7 +14041,7 @@
       </c>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>308</v>
       </c>
@@ -12637,7 +14077,7 @@
       </c>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>309</v>
       </c>
@@ -12673,7 +14113,7 @@
       </c>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>310</v>
       </c>
@@ -12709,7 +14149,7 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>311</v>
       </c>
@@ -12745,7 +14185,7 @@
       </c>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6">
         <v>312</v>
       </c>
@@ -12781,7 +14221,7 @@
       </c>
       <c r="L227" s="11"/>
     </row>
-    <row r="228" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
         <v>257</v>
       </c>
@@ -12817,7 +14257,7 @@
       </c>
       <c r="L228" s="11"/>
     </row>
-    <row r="229" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>258</v>
       </c>
@@ -12853,7 +14293,7 @@
       </c>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>259</v>
       </c>
@@ -12889,7 +14329,7 @@
       </c>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="60" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>260</v>
       </c>
@@ -12925,7 +14365,7 @@
       </c>
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>261</v>
       </c>
@@ -12961,7 +14401,7 @@
       </c>
       <c r="L232" s="4"/>
     </row>
-    <row r="233" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>262</v>
       </c>
@@ -12997,7 +14437,7 @@
       </c>
       <c r="L233" s="4"/>
     </row>
-    <row r="234" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="40" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>263</v>
       </c>
@@ -13033,7 +14473,7 @@
       </c>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>264</v>
       </c>
@@ -13069,7 +14509,7 @@
       </c>
       <c r="L235" s="4"/>
     </row>
-    <row r="236" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>265</v>
       </c>
@@ -13105,7 +14545,7 @@
       </c>
       <c r="L236" s="4"/>
     </row>
-    <row r="237" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>266</v>
       </c>
@@ -13141,7 +14581,7 @@
       </c>
       <c r="L237" s="4"/>
     </row>
-    <row r="238" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>267</v>
       </c>
@@ -13177,7 +14617,7 @@
       </c>
       <c r="L238" s="4"/>
     </row>
-    <row r="239" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>268</v>
       </c>
@@ -13213,7 +14653,7 @@
       </c>
       <c r="L239" s="4"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>269</v>
       </c>
@@ -13249,7 +14689,7 @@
       </c>
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>270</v>
       </c>
@@ -13285,7 +14725,7 @@
       </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>271</v>
       </c>
@@ -13321,7 +14761,7 @@
       </c>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>272</v>
       </c>
@@ -13357,7 +14797,7 @@
       </c>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>273</v>
       </c>
@@ -13405,7 +14845,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>274</v>
       </c>
@@ -13440,17 +14880,17 @@
         <v>471</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="18">
+      <c r="M245" s="14">
         <v>-33.810141399699802</v>
       </c>
-      <c r="N245" s="18">
+      <c r="N245" s="14">
         <v>116.003923121299</v>
       </c>
       <c r="O245">
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>275</v>
       </c>
@@ -13498,7 +14938,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="40" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>276</v>
       </c>
@@ -13546,7 +14986,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="40" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>277</v>
       </c>
@@ -13594,7 +15034,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="20" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>278</v>
       </c>
@@ -13643,7 +15083,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>279</v>
       </c>
@@ -13691,7 +15131,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>280</v>
       </c>
@@ -13739,7 +15179,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="40" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>281</v>
       </c>
@@ -13786,7 +15226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="6">
         <v>282</v>
       </c>
@@ -13859,60 +15299,60 @@
       <selection activeCell="L18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" t="s">
         <v>527</v>
       </c>
@@ -13929,7 +15369,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>283</v>
       </c>
@@ -13976,7 +15416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>284</v>
       </c>
@@ -14023,7 +15463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>285</v>
       </c>
@@ -14070,7 +15510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>286</v>
       </c>
@@ -14117,7 +15557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>287</v>
       </c>
@@ -14164,7 +15604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>288</v>
       </c>
@@ -14211,7 +15651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>289</v>
       </c>
@@ -14258,7 +15698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>290</v>
       </c>
@@ -14305,7 +15745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>291</v>
       </c>
@@ -14352,7 +15792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>292</v>
       </c>
@@ -14399,7 +15839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>293</v>
       </c>
@@ -14446,7 +15886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>294</v>
       </c>
@@ -14499,7 +15939,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>295</v>
       </c>
@@ -14546,7 +15986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>296</v>
       </c>
@@ -14593,7 +16033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>297</v>
       </c>
@@ -14640,7 +16080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>298</v>
       </c>
@@ -14688,7 +16128,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>299</v>
       </c>
@@ -14738,7 +16178,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>300</v>
       </c>
@@ -14788,7 +16228,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>301</v>
       </c>
@@ -14838,7 +16278,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>304</v>
       </c>
@@ -14888,7 +16328,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>305</v>
       </c>
@@ -14935,7 +16375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>306</v>
       </c>
@@ -14988,7 +16428,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>307</v>
       </c>
@@ -15038,7 +16478,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>308</v>
       </c>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68F961-26BF-49CE-B72E-630680C01386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7A1CE-5782-497F-B08A-AC4E4A16CA91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="602">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1842,12 +1842,60 @@
   <si>
     <t>coordinates guessed from google maps</t>
   </si>
+  <si>
+    <t>The tree felling is actually incremental in time, so not really a single observation</t>
+  </si>
+  <si>
+    <t>time period guessed from Fig 5 in Beck et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.ffpri.go.jp/labs/fwdb/sites/takaragawaE.htm reference should be Bosch, J.M., Hewlett, J.D., 1982. A review of catchment experiments to determine the effect of vegetation changes on water yield and evapotranspiration. Journal of Hydrology, 55: 3-23. </t>
+  </si>
+  <si>
+    <t>Swartboskloof is the name in the paper, increase in flow is 15.3%? Table 4 in paper</t>
+  </si>
+  <si>
+    <t>time period to the first change point in Webb and Jarrett (2013)</t>
+  </si>
+  <si>
+    <t>There is no Yerrami S in Zhou et al.</t>
+  </si>
+  <si>
+    <t>Bosboukloof</t>
+  </si>
+  <si>
+    <t>duplicate of 156 and 157?</t>
+  </si>
+  <si>
+    <t>reference should be: Troendle and King, 1987, watershed is the same as 222, just a part called "unit 8" in the paper</t>
+  </si>
+  <si>
+    <t>coordinates guessed from google maps, should this be Fool Creek mentioned in Troendle and Olssen 1994? This mentions CO1</t>
+  </si>
+  <si>
+    <t>duplicate? Different time period?</t>
+  </si>
+  <si>
+    <t>reference should be: Troendle and King, 1987. coordinates guessed from google maps, struggling to find the estimated results in the actual paper</t>
+  </si>
+  <si>
+    <t>duplicates of Troendle and King?</t>
+  </si>
+  <si>
+    <t>not in the Hibbert reference? Seems a straight copy from Bosch and Hewlett? Why was "South Fork" not added? Coordinates from google maps</t>
+  </si>
+  <si>
+    <t>duplicate of 260?</t>
+  </si>
+  <si>
+    <t>duplicate? Not in Hibbert 1979</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1889,6 +1937,14 @@
       <color rgb="FF222222"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1932,10 +1988,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1972,6 +2029,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1984,9 +2042,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2308,54 +2367,54 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4502,65 +4561,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="L231" sqref="L231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="10" t="s">
         <v>530</v>
       </c>
@@ -5480,6 +5540,20 @@
         <v>165</v>
       </c>
       <c r="L26" s="4"/>
+      <c r="M26">
+        <f>-33-57/60</f>
+        <v>-33.950000000000003</v>
+      </c>
+      <c r="N26">
+        <f>-18-15/60</f>
+        <v>-18.25</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -6967,6 +7041,15 @@
         <v>238</v>
       </c>
       <c r="L67" s="4"/>
+      <c r="M67">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N67">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
@@ -7450,7 +7533,7 @@
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -7486,7 +7569,7 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -7522,7 +7605,7 @@
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -7558,7 +7641,7 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -7594,7 +7677,7 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>144</v>
       </c>
@@ -7630,7 +7713,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -7666,7 +7749,7 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -7702,7 +7785,7 @@
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>147</v>
       </c>
@@ -7738,7 +7821,7 @@
       </c>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>148</v>
       </c>
@@ -7774,7 +7857,7 @@
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>149</v>
       </c>
@@ -7810,7 +7893,7 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>150</v>
       </c>
@@ -7846,7 +7929,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>151</v>
       </c>
@@ -7881,8 +7964,20 @@
         <v>276</v>
       </c>
       <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N92">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O92">
+        <v>30</v>
+      </c>
+      <c r="P92" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>152</v>
       </c>
@@ -7917,8 +8012,20 @@
         <v>276</v>
       </c>
       <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N93">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O93">
+        <v>30</v>
+      </c>
+      <c r="P93" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>153</v>
       </c>
@@ -7953,8 +8060,20 @@
         <v>279</v>
       </c>
       <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N94">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O94">
+        <v>30</v>
+      </c>
+      <c r="P94" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>154</v>
       </c>
@@ -7990,7 +8109,7 @@
       </c>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>155</v>
       </c>
@@ -8026,7 +8145,7 @@
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>156</v>
       </c>
@@ -8061,8 +8180,20 @@
         <v>279</v>
       </c>
       <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N97">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O97">
+        <v>30</v>
+      </c>
+      <c r="P97" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>157</v>
       </c>
@@ -8097,8 +8228,20 @@
         <v>286</v>
       </c>
       <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N98">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O98">
+        <v>30</v>
+      </c>
+      <c r="P98" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>158</v>
       </c>
@@ -8133,8 +8276,17 @@
         <v>288</v>
       </c>
       <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N99">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="P99" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>159</v>
       </c>
@@ -8170,7 +8322,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>160</v>
       </c>
@@ -8206,7 +8358,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>161</v>
       </c>
@@ -8242,7 +8394,7 @@
       </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>162</v>
       </c>
@@ -8278,7 +8430,7 @@
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>163</v>
       </c>
@@ -8314,7 +8466,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -8350,7 +8502,7 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -8386,7 +8538,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -8422,7 +8574,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -8469,7 +8621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -8505,7 +8657,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -8541,7 +8693,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>170</v>
       </c>
@@ -8577,7 +8729,7 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>171</v>
       </c>
@@ -9189,7 +9341,7 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>188</v>
       </c>
@@ -9225,7 +9377,7 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>189</v>
       </c>
@@ -9261,7 +9413,7 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>190</v>
       </c>
@@ -9297,7 +9449,7 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>191</v>
       </c>
@@ -9333,7 +9485,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>192</v>
       </c>
@@ -9369,7 +9521,7 @@
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>193</v>
       </c>
@@ -9405,7 +9557,7 @@
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>194</v>
       </c>
@@ -9441,7 +9593,7 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>195</v>
       </c>
@@ -9475,9 +9627,20 @@
       <c r="K136" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L136">
+        <v>1103</v>
+      </c>
+      <c r="M136">
+        <v>-37.909999999999997</v>
+      </c>
+      <c r="N136">
+        <v>146.02000000000001</v>
+      </c>
+      <c r="O136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>196</v>
       </c>
@@ -9513,7 +9676,7 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>197</v>
       </c>
@@ -9549,7 +9712,7 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>198</v>
       </c>
@@ -9585,7 +9748,7 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>199</v>
       </c>
@@ -9621,7 +9784,7 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>200</v>
       </c>
@@ -9657,7 +9820,7 @@
       </c>
       <c r="L141" s="11"/>
     </row>
-    <row r="142" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>201</v>
       </c>
@@ -9693,7 +9856,7 @@
       </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>202</v>
       </c>
@@ -9728,8 +9891,20 @@
         <v>357</v>
       </c>
       <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <v>49.573841926828699</v>
+      </c>
+      <c r="N143">
+        <v>-114.567104802245</v>
+      </c>
+      <c r="O143">
+        <v>6</v>
+      </c>
+      <c r="P143" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>203</v>
       </c>
@@ -10341,7 +10516,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>220</v>
       </c>
@@ -10376,8 +10551,11 @@
         <v>385</v>
       </c>
       <c r="L161" s="4"/>
-    </row>
-    <row r="162" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="P161" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>221</v>
       </c>
@@ -10413,7 +10591,7 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>222</v>
       </c>
@@ -10448,8 +10626,20 @@
         <v>389</v>
       </c>
       <c r="L163" s="4"/>
-    </row>
-    <row r="164" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M163">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N163">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O163">
+        <v>6</v>
+      </c>
+      <c r="P163" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>223</v>
       </c>
@@ -10484,8 +10674,20 @@
         <v>391</v>
       </c>
       <c r="L164" s="4"/>
-    </row>
-    <row r="165" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M164">
+        <v>39.8456849054676</v>
+      </c>
+      <c r="N164">
+        <v>-105.92363805782</v>
+      </c>
+      <c r="O164">
+        <v>3</v>
+      </c>
+      <c r="P164" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>224</v>
       </c>
@@ -10521,7 +10723,7 @@
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>225</v>
       </c>
@@ -10557,7 +10759,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>226</v>
       </c>
@@ -10593,7 +10795,7 @@
       </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>227</v>
       </c>
@@ -10629,7 +10831,7 @@
       </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>228</v>
       </c>
@@ -10665,7 +10867,7 @@
       </c>
       <c r="L169" s="11"/>
     </row>
-    <row r="170" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>229</v>
       </c>
@@ -10700,8 +10902,20 @@
         <v>357</v>
       </c>
       <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M170">
+        <v>49.591598386908103</v>
+      </c>
+      <c r="N170">
+        <v>-114.59201829569599</v>
+      </c>
+      <c r="O170">
+        <v>6</v>
+      </c>
+      <c r="P170" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>230</v>
       </c>
@@ -10737,7 +10951,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>231</v>
       </c>
@@ -10773,7 +10987,7 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>232</v>
       </c>
@@ -10809,7 +11023,7 @@
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>233</v>
       </c>
@@ -10845,7 +11059,7 @@
       </c>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>234</v>
       </c>
@@ -10881,7 +11095,7 @@
       </c>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>235</v>
       </c>
@@ -12420,6 +12634,9 @@
         <v>503</v>
       </c>
       <c r="L217" s="4"/>
+      <c r="P217" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="218" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
@@ -12456,6 +12673,9 @@
         <v>515</v>
       </c>
       <c r="L218" s="4"/>
+      <c r="P218" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="219" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
@@ -12492,6 +12712,9 @@
         <v>517</v>
       </c>
       <c r="L219" s="4"/>
+      <c r="P219" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="220" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
@@ -12528,6 +12751,9 @@
         <v>519</v>
       </c>
       <c r="L220" s="4"/>
+      <c r="P220" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="221" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
@@ -12564,6 +12790,9 @@
         <v>521</v>
       </c>
       <c r="L221" s="4"/>
+      <c r="P221" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="222" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
@@ -12673,7 +12902,7 @@
       </c>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>310</v>
       </c>
@@ -12709,7 +12938,7 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>311</v>
       </c>
@@ -12743,9 +12972,20 @@
       <c r="K226" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="L226" s="4"/>
-    </row>
-    <row r="227" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L226" s="4">
+        <v>1113</v>
+      </c>
+      <c r="M226">
+        <v>-37.78</v>
+      </c>
+      <c r="N226">
+        <v>145.62</v>
+      </c>
+      <c r="O226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>312</v>
       </c>
@@ -12780,8 +13020,11 @@
         <v>345</v>
       </c>
       <c r="L227" s="11"/>
-    </row>
-    <row r="228" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P227" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>257</v>
       </c>
@@ -12817,7 +13060,7 @@
       </c>
       <c r="L228" s="11"/>
     </row>
-    <row r="229" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>258</v>
       </c>
@@ -12853,7 +13096,7 @@
       </c>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>259</v>
       </c>
@@ -12889,7 +13132,7 @@
       </c>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>260</v>
       </c>
@@ -12924,8 +13167,20 @@
         <v>451</v>
       </c>
       <c r="L231" s="4"/>
-    </row>
-    <row r="232" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M231">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N231">
+        <v>-110.963855204659</v>
+      </c>
+      <c r="O231">
+        <v>5</v>
+      </c>
+      <c r="P231" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>261</v>
       </c>
@@ -12960,8 +13215,20 @@
         <v>453</v>
       </c>
       <c r="L232" s="4"/>
-    </row>
-    <row r="233" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M232">
+        <v>39.344346642072701</v>
+      </c>
+      <c r="N232">
+        <v>-123.740656376505</v>
+      </c>
+      <c r="O232">
+        <v>21</v>
+      </c>
+      <c r="P232" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>262</v>
       </c>
@@ -12996,8 +13263,20 @@
         <v>357</v>
       </c>
       <c r="L233" s="4"/>
-    </row>
-    <row r="234" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="M233">
+        <v>49.582549127594902</v>
+      </c>
+      <c r="N233">
+        <v>-114.57752959737699</v>
+      </c>
+      <c r="O233">
+        <v>6</v>
+      </c>
+      <c r="P233" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>263</v>
       </c>
@@ -13032,8 +13311,19 @@
         <v>456</v>
       </c>
       <c r="L234" s="4"/>
-    </row>
-    <row r="235" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M234">
+        <f>31+51/60</f>
+        <v>31.85</v>
+      </c>
+      <c r="N234">
+        <f>131+13/60</f>
+        <v>131.21666666666667</v>
+      </c>
+      <c r="O234">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>264</v>
       </c>
@@ -13068,8 +13358,17 @@
         <v>458</v>
       </c>
       <c r="L235" s="4"/>
-    </row>
-    <row r="236" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M235">
+        <v>39.846311838131903</v>
+      </c>
+      <c r="N235">
+        <v>-105.915166208657</v>
+      </c>
+      <c r="P235" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>265</v>
       </c>
@@ -13104,8 +13403,17 @@
         <v>458</v>
       </c>
       <c r="L236" s="4"/>
-    </row>
-    <row r="237" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M236">
+        <v>39.846311838131903</v>
+      </c>
+      <c r="N236">
+        <v>-105.915166208657</v>
+      </c>
+      <c r="P236" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>266</v>
       </c>
@@ -13140,8 +13448,20 @@
         <v>357</v>
       </c>
       <c r="L237" s="4"/>
-    </row>
-    <row r="238" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M237">
+        <v>49.599958868551902</v>
+      </c>
+      <c r="N237">
+        <v>-114.61216112018801</v>
+      </c>
+      <c r="O237">
+        <v>6</v>
+      </c>
+      <c r="P237" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>267</v>
       </c>
@@ -13175,9 +13495,20 @@
       <c r="K238" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="L238" s="4"/>
-    </row>
-    <row r="239" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L238">
+        <v>1075</v>
+      </c>
+      <c r="M238">
+        <v>-37.76</v>
+      </c>
+      <c r="N238">
+        <v>145.85</v>
+      </c>
+      <c r="O238">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>268</v>
       </c>
@@ -13212,8 +13543,22 @@
         <v>290</v>
       </c>
       <c r="L239" s="4"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M239">
+        <f>-37-20/60</f>
+        <v>-37.333333333333336</v>
+      </c>
+      <c r="N239">
+        <f>149+35/60</f>
+        <v>149.58333333333334</v>
+      </c>
+      <c r="O239">
+        <v>8</v>
+      </c>
+      <c r="P239" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>269</v>
       </c>
@@ -13248,6 +13593,20 @@
         <v>464</v>
       </c>
       <c r="L240" s="4"/>
+      <c r="M240">
+        <f>-33-57/60</f>
+        <v>-33.950000000000003</v>
+      </c>
+      <c r="N240">
+        <f>-18-15/60</f>
+        <v>-18.25</v>
+      </c>
+      <c r="O240">
+        <v>1</v>
+      </c>
+      <c r="P240" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="241" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
@@ -13284,6 +13643,21 @@
         <v>449</v>
       </c>
       <c r="L241" s="4"/>
+      <c r="M241">
+        <f>36+51/60</f>
+        <v>36.85</v>
+      </c>
+      <c r="N241">
+        <f>139+1/60</f>
+        <v>139.01666666666668</v>
+      </c>
+      <c r="O241">
+        <f>1981-1957</f>
+        <v>24</v>
+      </c>
+      <c r="P241" s="19" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="242" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
@@ -13319,7 +13693,21 @@
       <c r="K242" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L242" s="4"/>
+      <c r="L242">
+        <v>1487</v>
+      </c>
+      <c r="M242">
+        <v>18.300999999999998</v>
+      </c>
+      <c r="N242">
+        <v>66.781999999999996</v>
+      </c>
+      <c r="O242">
+        <v>20</v>
+      </c>
+      <c r="P242" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="243" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
@@ -13356,6 +13744,18 @@
         <v>299</v>
       </c>
       <c r="L243" s="4"/>
+      <c r="M243">
+        <v>52.472088267260901</v>
+      </c>
+      <c r="N243">
+        <v>-3.71674779431117</v>
+      </c>
+      <c r="O243">
+        <v>17</v>
+      </c>
+      <c r="P243" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="244" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
@@ -13440,10 +13840,10 @@
         <v>471</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="18">
+      <c r="M245" s="14">
         <v>-33.810141399699802</v>
       </c>
-      <c r="N245" s="18">
+      <c r="N245" s="14">
         <v>116.003923121299</v>
       </c>
       <c r="O245">
@@ -13846,8 +14246,11 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P241" r:id="rId1" display="https://www2.ffpri.go.jp/labs/fwdb/sites/takaragawaE.htm reference should be Bosch, J.M., Hewlett, J.D., 1982. A review of catchment experiments to determine the effect of vegetation changes on water yield and evapotranspiration. Journal of Hydrology, 55: 3-23. " xr:uid="{5309022A-E206-41E7-A5C0-F8D3DD4A0F00}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13865,54 +14268,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" t="s">
         <v>527</v>
       </c>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Documents\GitHub\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE1463-4DE9-48BF-A085-6345C79F9FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE0AA0-1322-425F-835B-0D4AAA54C696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="709">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1831,12 +1831,6 @@
     <t>Latitiude</t>
   </si>
   <si>
-    <t>Location Details</t>
-  </si>
-  <si>
-    <t>Timeframe</t>
-  </si>
-  <si>
     <t>Other details</t>
   </si>
   <si>
@@ -2198,6 +2192,18 @@
   </si>
   <si>
     <t>ΔQf(%)</t>
+  </si>
+  <si>
+    <t>Location Details AL=aprox location given by author, PL=point location given by author, GE= coordinates guessed from google maps</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>site 12, Bukit Berembun, Malaysia</t>
   </si>
 </sst>
 </file>
@@ -2326,7 +2332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2378,21 +2384,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2404,6 +2395,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2722,74 +2725,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="8.7265625" style="18"/>
     <col min="11" max="11" width="17.81640625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" style="26" customWidth="1"/>
+    <col min="15" max="15" width="18.90625" style="21" customWidth="1"/>
     <col min="16" max="16" width="65.453125" style="18" customWidth="1"/>
     <col min="17" max="17" width="9.7265625" style="18" customWidth="1"/>
     <col min="18" max="16384" width="8.7265625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>706</v>
+      <c r="G1" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>704</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="O1" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>651</v>
+      <c r="Q1" s="20" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -2833,16 +2836,16 @@
         <v>-51.149718999999997</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>610</v>
+        <v>626</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>608</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -2886,16 +2889,16 @@
         <v>-35</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>596</v>
+        <v>586</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -2939,16 +2942,16 @@
         <v>103</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>631</v>
+        <v>626</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>629</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="101.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2992,13 +2995,13 @@
         <v>106.01</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>608</v>
+        <v>586</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>606</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3042,16 +3045,16 @@
         <v>-121.74717099999999</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>624</v>
+        <v>586</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>622</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,13 +3098,13 @@
         <v>42</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>623</v>
+        <v>586</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>621</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,19 +3142,19 @@
         <v>36</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M8" s="15">
         <v>-121.783788</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>607</v>
+        <v>586</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>605</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,13 +3198,13 @@
         <v>145.14536200000001</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>614</v>
+        <v>586</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>612</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,7 +3239,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L10" s="15">
         <v>37.5</v>
@@ -3245,16 +3248,16 @@
         <v>110</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>633</v>
+        <v>586</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>631</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,13 +3301,13 @@
         <v>146.38759999999999</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>615</v>
+        <v>586</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>613</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3348,13 +3351,13 @@
         <v>-72</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>598</v>
+        <v>586</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>596</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,13 +3401,13 @@
         <v>102</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>589</v>
+        <v>586</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>587</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,7 +3442,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L14" s="15">
         <v>38</v>
@@ -3448,16 +3451,16 @@
         <v>112</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>633</v>
+        <v>586</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>631</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,13 +3504,13 @@
         <v>113.82366500000001</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>622</v>
+        <v>589</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>620</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,7 +3545,7 @@
         <v>40</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L16" s="15">
         <v>39</v>
@@ -3551,13 +3554,13 @@
         <v>111</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="O16" s="26" t="s">
         <v>633</v>
       </c>
+      <c r="O16" s="21" t="s">
+        <v>631</v>
+      </c>
       <c r="P16" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,16 +3604,16 @@
         <v>-67.126231000000004</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O17" s="26">
+        <v>589</v>
+      </c>
+      <c r="O17" s="21">
         <v>2000</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,7 +3648,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L18" s="15">
         <v>37.5</v>
@@ -3654,13 +3657,13 @@
         <v>110</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>638</v>
+        <v>586</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>636</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,13 +3707,13 @@
         <v>-69.428865000000002</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>599</v>
+        <v>586</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>597</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3754,13 +3757,13 @@
         <v>99.333332999999996</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>604</v>
+        <v>586</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>602</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3804,13 +3807,13 @@
         <v>102</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>670</v>
+        <v>609</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>668</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,7 +3848,7 @@
         <v>40</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L22" s="15">
         <v>40</v>
@@ -3854,13 +3857,13 @@
         <v>110</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>638</v>
+        <v>586</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>636</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3904,16 +3907,16 @@
         <v>74.569999999999993</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O23" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q23" s="18" t="s">
         <v>671</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,16 +3960,16 @@
         <v>64.45</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>674</v>
+        <v>609</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>672</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4010,16 +4013,16 @@
         <v>-75</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>676</v>
+        <v>609</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>674</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,16 +4066,16 @@
         <v>74.86</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>678</v>
+        <v>609</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>676</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,13 +4117,13 @@
         <v>146.41505900000001</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O27" s="26" t="s">
-        <v>616</v>
+        <v>589</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>614</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,13 +4167,13 @@
         <v>47.95</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>681</v>
+        <v>609</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>679</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4212,13 +4215,13 @@
         <v>147.78577000000001</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O29" s="26" t="s">
-        <v>617</v>
+        <v>589</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>615</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,13 +4265,13 @@
         <v>-62.310093999999999</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O30" s="26" t="s">
-        <v>600</v>
+        <v>586</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>598</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
@@ -4312,13 +4315,13 @@
         <v>116</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>602</v>
+        <v>586</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>600</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
@@ -4362,13 +4365,13 @@
         <v>116</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O32" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q32" s="28" t="s">
-        <v>682</v>
+        <v>586</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4412,16 +4415,16 @@
         <v>117</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O33" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="P33" s="26" t="s">
-        <v>650</v>
+        <v>586</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>648</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,13 +4468,13 @@
         <v>-115</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O34" s="26" t="s">
-        <v>621</v>
+        <v>589</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>619</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,10 +4516,10 @@
         <v>144.31499099999999</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O35" s="26" t="s">
-        <v>618</v>
+        <v>589</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4558,10 +4561,10 @@
         <v>146.58919499999999</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O36" s="26" t="s">
-        <v>619</v>
+        <v>589</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4605,13 +4608,13 @@
         <v>105.05812</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O37" s="26" t="s">
-        <v>627</v>
+        <v>589</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>625</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4655,9 +4658,9 @@
         <v>-77.984307000000001</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O38" s="26">
+        <v>589</v>
+      </c>
+      <c r="O38" s="21">
         <v>2000</v>
       </c>
     </row>
@@ -4702,13 +4705,13 @@
         <v>-122.5</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O39" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q39" s="28" t="s">
-        <v>687</v>
+        <v>586</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4752,10 +4755,10 @@
         <v>-66.358485000000002</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>601</v>
+        <v>586</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,13 +4802,13 @@
         <v>2.9997159999999998</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O41" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q41" s="28" t="s">
-        <v>689</v>
+        <v>589</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L42" s="15">
         <v>37</v>
@@ -4849,13 +4852,13 @@
         <v>111</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O42" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="P42" s="19" t="s">
         <v>638</v>
-      </c>
-      <c r="P42" s="19" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4890,7 +4893,7 @@
         <v>40</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L43" s="15">
         <v>35</v>
@@ -4899,13 +4902,13 @@
         <v>110</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O43" s="26" t="s">
-        <v>633</v>
+        <v>586</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>631</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="72.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4949,13 +4952,13 @@
         <v>-66.321481000000006</v>
       </c>
       <c r="N44" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="O44" s="21">
+        <v>2000</v>
+      </c>
+      <c r="P44" s="19" t="s">
         <v>591</v>
-      </c>
-      <c r="O44" s="26">
-        <v>2000</v>
-      </c>
-      <c r="P44" s="19" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -4999,13 +5002,13 @@
         <v>-66.321481000000006</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O45" s="26">
+        <v>589</v>
+      </c>
+      <c r="O45" s="21">
         <v>2000</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5049,13 +5052,13 @@
         <v>102.52542200000001</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O46" s="26">
+        <v>589</v>
+      </c>
+      <c r="O46" s="21">
         <v>1995</v>
       </c>
-      <c r="Q46" s="28" t="s">
-        <v>690</v>
+      <c r="Q46" s="23" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5099,16 +5102,16 @@
         <v>1.1273260000000001</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O47" s="26" t="s">
-        <v>691</v>
+        <v>589</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>689</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,13 +5155,13 @@
         <v>-56.925654999999999</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O48" s="26">
+        <v>589</v>
+      </c>
+      <c r="O48" s="21">
         <v>2000</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -5202,16 +5205,16 @@
         <v>108.83333333333333</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O49" s="26" t="s">
-        <v>648</v>
+        <v>586</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>646</v>
       </c>
       <c r="P49" s="19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5255,13 +5258,13 @@
         <v>-48</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O50" s="26" t="s">
-        <v>694</v>
+        <v>586</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>692</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5305,16 +5308,16 @@
         <v>-55.68333333333333</v>
       </c>
       <c r="N51" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="P51" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="O51" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>613</v>
-      </c>
       <c r="Q51" s="18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1" x14ac:dyDescent="0.25">
@@ -5358,16 +5361,16 @@
         <v>103</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O52" s="26" t="s">
-        <v>646</v>
+        <v>586</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>644</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -5411,13 +5414,13 @@
         <v>100</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="O53" s="26" t="s">
-        <v>629</v>
+        <v>626</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>627</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5459,10 +5462,10 @@
         <v>147.299948</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O54" s="26" t="s">
-        <v>620</v>
+        <v>589</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5497,7 +5500,7 @@
         <v>40</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L55" s="15">
         <v>37.5</v>
@@ -5506,13 +5509,13 @@
         <v>111</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O55" s="26" t="s">
-        <v>642</v>
+        <v>586</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>640</v>
       </c>
       <c r="P55" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5556,13 +5559,13 @@
         <v>54.2</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>626</v>
+        <v>609</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>624</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5606,13 +5609,13 @@
         <v>109.849656</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O57" s="26" t="s">
-        <v>700</v>
+        <v>586</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>698</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5654,13 +5657,13 @@
         <v>110.66666666666667</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O58" s="26" t="s">
-        <v>702</v>
+        <v>586</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>700</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,13 +5707,13 @@
         <v>128.69999999999999</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="O59" s="26" t="s">
-        <v>630</v>
+        <v>609</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>628</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5754,9 +5757,9 @@
         <v>-52.655372</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="O60" s="26">
+        <v>589</v>
+      </c>
+      <c r="O60" s="21">
         <v>2000</v>
       </c>
     </row>
@@ -5792,7 +5795,7 @@
         <v>40</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L61" s="15">
         <v>38</v>
@@ -5801,13 +5804,13 @@
         <v>111</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O61" s="26" t="s">
-        <v>638</v>
+        <v>586</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>636</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5842,7 +5845,7 @@
         <v>40</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L62" s="17">
         <v>36</v>
@@ -5851,13 +5854,13 @@
         <v>110</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="O62" s="26" t="s">
-        <v>633</v>
+        <v>586</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>631</v>
       </c>
       <c r="P62" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5875,67 +5878,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="L231" sqref="L231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="Q1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="9" t="s">
         <v>528</v>
       </c>
@@ -5951,8 +5958,14 @@
       <c r="P2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>706</v>
+      </c>
+      <c r="R2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>62</v>
       </c>
@@ -5987,8 +6000,23 @@
         <v>123</v>
       </c>
       <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>44.55</v>
+      </c>
+      <c r="N3">
+        <v>-123.85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q3">
+        <v>1959</v>
+      </c>
+      <c r="R3">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>63</v>
       </c>
@@ -6023,8 +6051,23 @@
         <v>125</v>
       </c>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>44.533332999999999</v>
+      </c>
+      <c r="N4">
+        <v>-123.88333299999999</v>
+      </c>
+      <c r="P4" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q4">
+        <v>1950</v>
+      </c>
+      <c r="R4">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>64</v>
       </c>
@@ -6067,8 +6110,14 @@
       <c r="O5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+      <c r="Q5">
+        <v>1970</v>
+      </c>
+      <c r="R5">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>65</v>
       </c>
@@ -6112,8 +6161,14 @@
       <c r="O6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>1970</v>
+      </c>
+      <c r="R6">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>66</v>
       </c>
@@ -6148,8 +6203,20 @@
         <v>131</v>
       </c>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <v>9.5754000000000001</v>
+      </c>
+      <c r="N7">
+        <v>36.623100000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1972</v>
+      </c>
+      <c r="R7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>67</v>
       </c>
@@ -6199,7 +6266,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>68</v>
       </c>
@@ -6234,8 +6301,17 @@
         <v>135</v>
       </c>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q9">
+        <v>2005</v>
+      </c>
+      <c r="R9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>69</v>
       </c>
@@ -6271,7 +6347,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>70</v>
       </c>
@@ -6307,7 +6383,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>71</v>
       </c>
@@ -6343,7 +6419,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>72</v>
       </c>
@@ -6382,7 +6458,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>73</v>
       </c>
@@ -6418,7 +6494,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>74</v>
       </c>
@@ -6454,7 +6530,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>75</v>
       </c>
@@ -15230,64 +15306,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:M18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
     <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" t="s">
         <v>525</v>
       </c>

--- a/data/TablesZhangetal2017.xlsx
+++ b/data/TablesZhangetal2017.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Documents\GitHub\Forest_and_water\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEC6C6-BB9B-43E0-9D6E-B9868C7609FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C9E234-0A2D-464C-8F71-C9438C7790A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
     <sheet name="Zhang et al. (2017) &lt; 1000 km2" sheetId="2" r:id="rId2"/>
     <sheet name="NewData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2463,6 +2472,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2473,12 +2488,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2797,24 +2806,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.7265625" style="17"/>
-    <col min="11" max="11" width="17.81640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.90625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="65.453125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="10" width="8.77734375" style="17"/>
+    <col min="11" max="11" width="17.77734375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" style="20" customWidth="1"/>
+    <col min="16" max="16" width="65.44140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="142.80000000000001" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2916,11 +2925,11 @@
       <c r="P2" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="18" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="101.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="101.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3076,7 +3085,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3129,7 +3138,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3279,7 +3288,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3332,7 +3341,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3432,7 +3441,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3788,7 +3797,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3991,7 +4000,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4296,7 +4305,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4346,7 +4355,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="292.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4499,7 +4508,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4549,7 +4558,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4639,7 +4648,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4689,7 +4698,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4786,7 +4795,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4833,7 +4842,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4983,7 +4992,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="72.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="72.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5236,7 +5245,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5289,7 +5298,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5392,7 +5401,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="115.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5445,7 +5454,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5788,7 +5797,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5885,7 +5894,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="218" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="217.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5952,19 +5961,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:S252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+    <sheetView topLeftCell="C64" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5983,10 +5992,10 @@
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="24" t="s">
@@ -6023,7 +6032,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>62</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>63</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>64</v>
       </c>
@@ -6175,7 +6184,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>65</v>
       </c>
@@ -6226,7 +6235,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>66</v>
       </c>
@@ -6274,7 +6283,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>67</v>
       </c>
@@ -6324,7 +6333,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>68</v>
       </c>
@@ -6369,7 +6378,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>69</v>
       </c>
@@ -6405,7 +6414,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>70</v>
       </c>
@@ -6441,7 +6450,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>71</v>
       </c>
@@ -6477,7 +6486,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>72</v>
       </c>
@@ -6516,7 +6525,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>73</v>
       </c>
@@ -6557,7 +6566,7 @@
       <c r="N13">
         <v>64.066666999999995</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="26"/>
       <c r="P13" t="s">
         <v>718</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>74</v>
       </c>
@@ -6607,7 +6616,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>75</v>
       </c>
@@ -6643,7 +6652,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>76</v>
       </c>
@@ -6684,7 +6693,7 @@
       <c r="N16">
         <v>-111.667858</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="O16" s="26"/>
       <c r="P16" t="s">
         <v>716</v>
       </c>
@@ -6698,7 +6707,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>77</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>78</v>
       </c>
@@ -6773,7 +6782,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>79</v>
       </c>
@@ -6809,7 +6818,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>80</v>
       </c>
@@ -6845,7 +6854,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>81</v>
       </c>
@@ -6881,7 +6890,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>82</v>
       </c>
@@ -6917,7 +6926,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>83</v>
       </c>
@@ -6956,7 +6965,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>84</v>
       </c>
@@ -6992,7 +7001,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>85</v>
       </c>
@@ -7028,7 +7037,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>86</v>
       </c>
@@ -7064,7 +7073,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>87</v>
       </c>
@@ -7100,7 +7109,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>88</v>
       </c>
@@ -7136,7 +7145,7 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>89</v>
       </c>
@@ -7177,7 +7186,7 @@
       <c r="N29">
         <v>65.150000000000006</v>
       </c>
-      <c r="O29" s="30"/>
+      <c r="O29" s="26"/>
       <c r="P29" t="s">
         <v>719</v>
       </c>
@@ -7185,7 +7194,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>90</v>
       </c>
@@ -7226,7 +7235,7 @@
       <c r="N30">
         <v>122.833333</v>
       </c>
-      <c r="O30" s="30"/>
+      <c r="O30" s="26"/>
       <c r="Q30">
         <v>1980</v>
       </c>
@@ -7237,7 +7246,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>91</v>
       </c>
@@ -7273,7 +7282,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>92</v>
       </c>
@@ -7309,7 +7318,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>93</v>
       </c>
@@ -7345,7 +7354,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>94</v>
       </c>
@@ -7381,7 +7390,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>95</v>
       </c>
@@ -7417,7 +7426,7 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>96</v>
       </c>
@@ -7453,7 +7462,7 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>97</v>
       </c>
@@ -7494,7 +7503,7 @@
       <c r="N37">
         <v>65.116667000000007</v>
       </c>
-      <c r="O37" s="30"/>
+      <c r="O37" s="26"/>
       <c r="P37" t="s">
         <v>720</v>
       </c>
@@ -7502,7 +7511,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>98</v>
       </c>
@@ -7538,7 +7547,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>99</v>
       </c>
@@ -7574,7 +7583,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>100</v>
       </c>
@@ -7613,7 +7622,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>101</v>
       </c>
@@ -7649,7 +7658,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>102</v>
       </c>
@@ -7693,7 +7702,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>103</v>
       </c>
@@ -7729,7 +7738,7 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>104</v>
       </c>
@@ -7765,7 +7774,7 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>105</v>
       </c>
@@ -7801,7 +7810,7 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>106</v>
       </c>
@@ -7837,7 +7846,7 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>107</v>
       </c>
@@ -7873,7 +7882,7 @@
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>108</v>
       </c>
@@ -7909,7 +7918,7 @@
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>109</v>
       </c>
@@ -7945,7 +7954,7 @@
       </c>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>110</v>
       </c>
@@ -7981,7 +7990,7 @@
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>111</v>
       </c>
@@ -8017,7 +8026,7 @@
       </c>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:19" ht="50" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>112</v>
       </c>
@@ -8053,7 +8062,7 @@
       </c>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>113</v>
       </c>
@@ -8089,7 +8098,7 @@
       </c>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>114</v>
       </c>
@@ -8125,7 +8134,7 @@
       </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>115</v>
       </c>
@@ -8161,7 +8170,7 @@
       </c>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>116</v>
       </c>
@@ -8197,7 +8206,7 @@
       </c>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>117</v>
       </c>
@@ -8233,7 +8242,7 @@
       </c>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>118</v>
       </c>
@@ -8269,7 +8278,7 @@
       </c>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>119</v>
       </c>
@@ -8305,7 +8314,7 @@
       </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>120</v>
       </c>
@@ -8341,7 +8350,7 @@
       </c>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>121</v>
       </c>
@@ -8377,7 +8386,7 @@
       </c>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>122</v>
       </c>
@@ -8413,7 +8422,7 @@
       </c>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>123</v>
       </c>
@@ -8454,7 +8463,7 @@
       <c r="N63">
         <v>64.05</v>
       </c>
-      <c r="O63" s="30"/>
+      <c r="O63" s="26"/>
       <c r="P63" t="s">
         <v>721</v>
       </c>
@@ -8462,7 +8471,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>124</v>
       </c>
@@ -8503,7 +8512,7 @@
       <c r="N64">
         <v>76.7</v>
       </c>
-      <c r="O64" s="30"/>
+      <c r="O64" s="26"/>
       <c r="Q64">
         <v>2002</v>
       </c>
@@ -8514,7 +8523,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>125</v>
       </c>
@@ -8550,7 +8559,7 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>126</v>
       </c>
@@ -8586,7 +8595,7 @@
       </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>127</v>
       </c>
@@ -8622,7 +8631,7 @@
       </c>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>128</v>
       </c>
@@ -8658,7 +8667,7 @@
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>129</v>
       </c>
@@ -8694,7 +8703,7 @@
       </c>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>130</v>
       </c>
@@ -8730,7 +8739,7 @@
       </c>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>131</v>
       </c>
@@ -8780,7 +8789,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>132</v>
       </c>
@@ -8821,7 +8830,7 @@
       <c r="N72">
         <v>67</v>
       </c>
-      <c r="O72" s="30"/>
+      <c r="O72" s="26"/>
       <c r="P72" t="s">
         <v>722</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>133</v>
       </c>
@@ -8865,7 +8874,7 @@
       </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>134</v>
       </c>
@@ -8901,7 +8910,7 @@
       </c>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>135</v>
       </c>
@@ -8937,7 +8946,7 @@
       </c>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>136</v>
       </c>
@@ -8973,7 +8982,7 @@
       </c>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>137</v>
       </c>
@@ -9009,7 +9018,7 @@
       </c>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>138</v>
       </c>
@@ -9045,7 +9054,7 @@
       </c>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>139</v>
       </c>
@@ -9081,7 +9090,7 @@
       </c>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>140</v>
       </c>
@@ -9117,7 +9126,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>141</v>
       </c>
@@ -9153,7 +9162,7 @@
       </c>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>142</v>
       </c>
@@ -9189,7 +9198,7 @@
       </c>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>143</v>
       </c>
@@ -9225,7 +9234,7 @@
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>144</v>
       </c>
@@ -9261,7 +9270,7 @@
       </c>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>145</v>
       </c>
@@ -9297,7 +9306,7 @@
       </c>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>146</v>
       </c>
@@ -9333,7 +9342,7 @@
       </c>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>147</v>
       </c>
@@ -9369,7 +9378,7 @@
       </c>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>148</v>
       </c>
@@ -9405,7 +9414,7 @@
       </c>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>149</v>
       </c>
@@ -9441,7 +9450,7 @@
       </c>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>150</v>
       </c>
@@ -9477,7 +9486,7 @@
       </c>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>151</v>
       </c>
@@ -9513,7 +9522,7 @@
       </c>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>152</v>
       </c>
@@ -9549,7 +9558,7 @@
       </c>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>153</v>
       </c>
@@ -9590,7 +9599,7 @@
       <c r="N93">
         <v>-105.881969</v>
       </c>
-      <c r="O93" s="30"/>
+      <c r="O93" s="26"/>
       <c r="P93" t="s">
         <v>714</v>
       </c>
@@ -9604,7 +9613,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>154</v>
       </c>
@@ -9640,7 +9649,7 @@
       </c>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>155</v>
       </c>
@@ -9676,7 +9685,7 @@
       </c>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>156</v>
       </c>
@@ -9717,7 +9726,7 @@
       <c r="N96">
         <v>-105.881742</v>
       </c>
-      <c r="O96" s="30"/>
+      <c r="O96" s="26"/>
       <c r="P96" t="s">
         <v>715</v>
       </c>
@@ -9731,7 +9740,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>157</v>
       </c>
@@ -9772,7 +9781,7 @@
       <c r="N97">
         <v>-105.881742</v>
       </c>
-      <c r="O97" s="30"/>
+      <c r="O97" s="26"/>
       <c r="P97" t="s">
         <v>713</v>
       </c>
@@ -9786,7 +9795,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>158</v>
       </c>
@@ -9821,12 +9830,12 @@
         <v>286</v>
       </c>
       <c r="L98" s="2"/>
-      <c r="O98" s="30"/>
+      <c r="O98" s="26"/>
       <c r="P98" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>159</v>
       </c>
@@ -9862,7 +9871,7 @@
       </c>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>160</v>
       </c>
@@ -9898,7 +9907,7 @@
       </c>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>161</v>
       </c>
@@ -9939,7 +9948,7 @@
       <c r="N101">
         <v>66.083332999999996</v>
       </c>
-      <c r="O101" s="30"/>
+      <c r="O101" s="26"/>
       <c r="P101" t="s">
         <v>723</v>
       </c>
@@ -9947,7 +9956,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>162</v>
       </c>
@@ -9988,7 +9997,7 @@
       <c r="N102">
         <v>64.066666999999995</v>
       </c>
-      <c r="O102" s="30"/>
+      <c r="O102" s="26"/>
       <c r="P102" t="s">
         <v>724</v>
       </c>
@@ -9996,7 +10005,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>163</v>
       </c>
@@ -10037,7 +10046,7 @@
       <c r="N103">
         <v>66.016666999999998</v>
       </c>
-      <c r="O103" s="30"/>
+      <c r="O103" s="26"/>
       <c r="P103" t="s">
         <v>725</v>
       </c>
@@ -10045,7 +10054,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>164</v>
       </c>
@@ -10081,7 +10090,7 @@
       </c>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>165</v>
       </c>
@@ -10117,7 +10126,7 @@
       </c>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>166</v>
       </c>
@@ -10153,7 +10162,7 @@
       </c>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>167</v>
       </c>
@@ -10200,7 +10209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>168</v>
       </c>
@@ -10236,7 +10245,7 @@
       </c>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>169</v>
       </c>
@@ -10272,7 +10281,7 @@
       </c>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>170</v>
       </c>
@@ -10308,7 +10317,7 @@
       </c>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>171</v>
       </c>
@@ -10344,7 +10353,7 @@
       </c>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>172</v>
       </c>
@@ -10380,7 +10389,7 @@
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>173</v>
       </c>
@@ -10416,7 +10425,7 @@
       </c>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>174</v>
       </c>
@@ -10452,7 +10461,7 @@
       </c>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>175</v>
       </c>
@@ -10488,7 +10497,7 @@
       </c>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>176</v>
       </c>
@@ -10524,7 +10533,7 @@
       </c>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>177</v>
       </c>
@@ -10560,7 +10569,7 @@
       </c>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>178</v>
       </c>
@@ -10596,7 +10605,7 @@
       </c>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>179</v>
       </c>
@@ -10632,7 +10641,7 @@
       </c>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>180</v>
       </c>
@@ -10668,7 +10677,7 @@
       </c>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>181</v>
       </c>
@@ -10709,7 +10718,7 @@
       <c r="N121">
         <v>66.083332999999996</v>
       </c>
-      <c r="O121" s="30"/>
+      <c r="O121" s="26"/>
       <c r="P121" t="s">
         <v>726</v>
       </c>
@@ -10717,7 +10726,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>182</v>
       </c>
@@ -10753,7 +10762,7 @@
       </c>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>183</v>
       </c>
@@ -10789,7 +10798,7 @@
       </c>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>184</v>
       </c>
@@ -10825,7 +10834,7 @@
       </c>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>185</v>
       </c>
@@ -10861,7 +10870,7 @@
       </c>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>186</v>
       </c>
@@ -10897,7 +10906,7 @@
       </c>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>187</v>
       </c>
@@ -10933,7 +10942,7 @@
       </c>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>188</v>
       </c>
@@ -10969,7 +10978,7 @@
       </c>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>189</v>
       </c>
@@ -11005,7 +11014,7 @@
       </c>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>190</v>
       </c>
@@ -11041,7 +11050,7 @@
       </c>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>191</v>
       </c>
@@ -11077,7 +11086,7 @@
       </c>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>192</v>
       </c>
@@ -11113,7 +11122,7 @@
       </c>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>193</v>
       </c>
@@ -11149,7 +11158,7 @@
       </c>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>194</v>
       </c>
@@ -11185,7 +11194,7 @@
       </c>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>195</v>
       </c>
@@ -11221,7 +11230,7 @@
       </c>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>196</v>
       </c>
@@ -11257,7 +11266,7 @@
       </c>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>197</v>
       </c>
@@ -11293,7 +11302,7 @@
       </c>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>198</v>
       </c>
@@ -11329,7 +11338,7 @@
       </c>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>199</v>
       </c>
@@ -11370,7 +11379,7 @@
       <c r="N139">
         <v>122.833333</v>
       </c>
-      <c r="O139" s="30"/>
+      <c r="O139" s="26"/>
       <c r="Q139">
         <v>1986</v>
       </c>
@@ -11381,7 +11390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>200</v>
       </c>
@@ -11417,7 +11426,7 @@
       </c>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>201</v>
       </c>
@@ -11453,7 +11462,7 @@
       </c>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>202</v>
       </c>
@@ -11489,7 +11498,7 @@
       </c>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>203</v>
       </c>
@@ -11525,7 +11534,7 @@
       </c>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>204</v>
       </c>
@@ -11561,7 +11570,7 @@
       </c>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>205</v>
       </c>
@@ -11597,7 +11606,7 @@
       </c>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>206</v>
       </c>
@@ -11633,7 +11642,7 @@
       </c>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>207</v>
       </c>
@@ -11669,7 +11678,7 @@
       </c>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>208</v>
       </c>
@@ -11705,7 +11714,7 @@
       </c>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>209</v>
       </c>
@@ -11741,7 +11750,7 @@
       </c>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>210</v>
       </c>
@@ -11782,7 +11791,7 @@
       <c r="N150">
         <v>116.32878700000001</v>
       </c>
-      <c r="O150" s="30"/>
+      <c r="O150" s="26"/>
       <c r="Q150">
         <v>1982</v>
       </c>
@@ -11793,7 +11802,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>211</v>
       </c>
@@ -11829,7 +11838,7 @@
       </c>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>212</v>
       </c>
@@ -11865,7 +11874,7 @@
       </c>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>213</v>
       </c>
@@ -11901,7 +11910,7 @@
       </c>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>214</v>
       </c>
@@ -11937,7 +11946,7 @@
       </c>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>215</v>
       </c>
@@ -11973,7 +11982,7 @@
       </c>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>216</v>
       </c>
@@ -12009,7 +12018,7 @@
       </c>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>217</v>
       </c>
@@ -12045,7 +12054,7 @@
       </c>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>218</v>
       </c>
@@ -12081,7 +12090,7 @@
       </c>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" ht="51" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>219</v>
       </c>
@@ -12117,7 +12126,7 @@
       </c>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>220</v>
       </c>
@@ -12153,7 +12162,7 @@
       </c>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>221</v>
       </c>
@@ -12189,7 +12198,7 @@
       </c>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>222</v>
       </c>
@@ -12225,7 +12234,7 @@
       </c>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>223</v>
       </c>
@@ -12261,7 +12270,7 @@
       </c>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>224</v>
       </c>
@@ -12297,7 +12306,7 @@
       </c>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>225</v>
       </c>
@@ -12333,7 +12342,7 @@
       </c>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>226</v>
       </c>
@@ -12369,7 +12378,7 @@
       </c>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>227</v>
       </c>
@@ -12405,7 +12414,7 @@
       </c>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>228</v>
       </c>
@@ -12441,7 +12450,7 @@
       </c>
       <c r="L168" s="9"/>
     </row>
-    <row r="169" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>229</v>
       </c>
@@ -12477,7 +12486,7 @@
       </c>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>230</v>
       </c>
@@ -12513,7 +12522,7 @@
       </c>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>231</v>
       </c>
@@ -12549,7 +12558,7 @@
       </c>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>232</v>
       </c>
@@ -12585,7 +12594,7 @@
       </c>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>233</v>
       </c>
@@ -12621,7 +12630,7 @@
       </c>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>234</v>
       </c>
@@ -12657,7 +12666,7 @@
       </c>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>235</v>
       </c>
@@ -12693,7 +12702,7 @@
       </c>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>236</v>
       </c>
@@ -12729,7 +12738,7 @@
       </c>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>237</v>
       </c>
@@ -12765,7 +12774,7 @@
       </c>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>238</v>
       </c>
@@ -12801,7 +12810,7 @@
       </c>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>239</v>
       </c>
@@ -12837,7 +12846,7 @@
       </c>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>240</v>
       </c>
@@ -12876,7 +12885,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>241</v>
       </c>
@@ -12912,7 +12921,7 @@
       </c>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>242</v>
       </c>
@@ -12948,7 +12957,7 @@
       </c>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>243</v>
       </c>
@@ -12984,7 +12993,7 @@
       </c>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>244</v>
       </c>
@@ -13025,7 +13034,7 @@
       <c r="N184">
         <v>66.116667000000007</v>
       </c>
-      <c r="O184" s="30"/>
+      <c r="O184" s="26"/>
       <c r="P184" t="s">
         <v>727</v>
       </c>
@@ -13033,7 +13042,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>245</v>
       </c>
@@ -13069,7 +13078,7 @@
       </c>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>246</v>
       </c>
@@ -13105,7 +13114,7 @@
       </c>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>247</v>
       </c>
@@ -13141,7 +13150,7 @@
       </c>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>248</v>
       </c>
@@ -13188,7 +13197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>249</v>
       </c>
@@ -13224,7 +13233,7 @@
       </c>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>250</v>
       </c>
@@ -13260,7 +13269,7 @@
       </c>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>251</v>
       </c>
@@ -13296,7 +13305,7 @@
       </c>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>252</v>
       </c>
@@ -13332,7 +13341,7 @@
       </c>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>253</v>
       </c>
@@ -13368,7 +13377,7 @@
       </c>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>254</v>
       </c>
@@ -13404,7 +13413,7 @@
       </c>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>255</v>
       </c>
@@ -13440,7 +13449,7 @@
       </c>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:19" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>256</v>
       </c>
@@ -13481,7 +13490,7 @@
       <c r="N196">
         <v>122.833333</v>
       </c>
-      <c r="O196" s="30"/>
+      <c r="O196" s="26"/>
       <c r="Q196">
         <v>1986</v>
       </c>
@@ -13492,7 +13501,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>257</v>
       </c>
@@ -13533,7 +13542,7 @@
       <c r="N197">
         <v>122.833333</v>
       </c>
-      <c r="O197" s="30"/>
+      <c r="O197" s="26"/>
       <c r="Q197">
         <v>1986</v>
       </c>
@@ -13544,7 +13553,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>258</v>
       </c>
@@ -13580,7 +13589,7 @@
       </c>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>259</v>
       </c>
@@ -13616,7 +13625,7 @@
       </c>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>260</v>
       </c>
@@ -13652,7 +13661,7 @@
       </c>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>261</v>
       </c>
@@ -13688,7 +13697,7 @@
       </c>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>262</v>
       </c>
@@ -13724,7 +13733,7 @@
       </c>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="9">
         <v>263</v>
       </c>
@@ -13760,7 +13769,7 @@
       </c>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>264</v>
       </c>
@@ -13801,7 +13810,7 @@
       <c r="N204">
         <v>-105.73653899999999</v>
       </c>
-      <c r="O204" s="30"/>
+      <c r="O204" s="26"/>
       <c r="P204" t="s">
         <v>711</v>
       </c>
@@ -13815,7 +13824,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>265</v>
       </c>
@@ -13856,7 +13865,7 @@
       <c r="N205">
         <v>-105.881742</v>
       </c>
-      <c r="O205" s="30"/>
+      <c r="O205" s="26"/>
       <c r="P205" t="s">
         <v>712</v>
       </c>
@@ -13870,7 +13879,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>266</v>
       </c>
@@ -13906,7 +13915,7 @@
       </c>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A207" s="9">
         <v>267</v>
       </c>
@@ -13942,7 +13951,7 @@
       </c>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>268</v>
       </c>
@@ -13978,7 +13987,7 @@
       </c>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>269</v>
       </c>
@@ -14014,7 +14023,7 @@
       </c>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>270</v>
       </c>
@@ -14050,7 +14059,7 @@
       </c>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>271</v>
       </c>
@@ -14091,7 +14100,7 @@
       <c r="N211">
         <v>68.133332999999993</v>
       </c>
-      <c r="O211" s="30"/>
+      <c r="O211" s="26"/>
       <c r="P211" t="s">
         <v>729</v>
       </c>
@@ -14099,7 +14108,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>272</v>
       </c>
@@ -14135,7 +14144,7 @@
       </c>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>273</v>
       </c>
@@ -14183,7 +14192,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>274</v>
       </c>
@@ -14228,7 +14237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>275</v>
       </c>
@@ -14276,7 +14285,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A216" s="9">
         <v>276</v>
       </c>
@@ -14324,7 +14333,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="40" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>277</v>
       </c>
@@ -14372,7 +14381,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>278</v>
       </c>
@@ -14421,7 +14430,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>279</v>
       </c>
@@ -14469,7 +14478,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>280</v>
       </c>
@@ -14517,7 +14526,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>281</v>
       </c>
@@ -14564,7 +14573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="9">
         <v>282</v>
       </c>
@@ -14611,7 +14620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>283</v>
       </c>
@@ -14652,7 +14661,7 @@
       <c r="N223">
         <v>65.150000000000006</v>
       </c>
-      <c r="O223" s="30"/>
+      <c r="O223" s="26"/>
       <c r="P223" t="s">
         <v>728</v>
       </c>
@@ -14660,7 +14669,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>284</v>
       </c>
@@ -14696,7 +14705,7 @@
       </c>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>285</v>
       </c>
@@ -14732,7 +14741,7 @@
       </c>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>286</v>
       </c>
@@ -14768,7 +14777,7 @@
       </c>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>287</v>
       </c>
@@ -14804,7 +14813,7 @@
       </c>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A228" s="9">
         <v>288</v>
       </c>
@@ -14840,7 +14849,7 @@
       </c>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>289</v>
       </c>
@@ -14876,7 +14885,7 @@
       </c>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>290</v>
       </c>
@@ -14912,7 +14921,7 @@
       </c>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>291</v>
       </c>
@@ -14948,7 +14957,7 @@
       </c>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>292</v>
       </c>
@@ -14989,7 +14998,7 @@
       <c r="N232">
         <v>-106.830938</v>
       </c>
-      <c r="O232" s="30"/>
+      <c r="O232" s="26"/>
       <c r="Q232">
         <v>1919</v>
       </c>
@@ -15000,7 +15009,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>293</v>
       </c>
@@ -15036,7 +15045,7 @@
       </c>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>294</v>
       </c>
@@ -15072,7 +15081,7 @@
       </c>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>295</v>
       </c>
@@ -15108,7 +15117,7 @@
       </c>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>296</v>
       </c>
@@ -15144,7 +15153,7 @@
       </c>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>297</v>
       </c>
@@ -15180,7 +15189,7 @@
       </c>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>298</v>
       </c>
@@ -15230,7 +15239,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>299</v>
       </c>
@@ -15266,7 +15275,7 @@
       </c>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:19" ht="20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>300</v>
       </c>
@@ -15302,7 +15311,7 @@
       </c>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>301</v>
       </c>
@@ -15338,7 +15347,7 @@
       </c>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>302</v>
       </c>
@@ -15374,7 +15383,7 @@
       </c>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>303</v>
       </c>
@@ -15410,7 +15419,7 @@
       </c>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>304</v>
       </c>
@@ -15446,7 +15455,7 @@
       </c>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>305</v>
       </c>
@@ -15482,7 +15491,7 @@
       </c>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>306</v>
       </c>
@@ -15518,7 +15527,7 @@
       </c>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>307</v>
       </c>
@@ -15554,7 +15563,7 @@
       </c>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>308</v>
       </c>
@@ -15590,7 +15599,7 @@
       </c>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>309</v>
       </c>
@@ -15626,7 +15635,7 @@
       </c>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>310</v>
       </c>
@@ -15662,7 +15671,7 @@
       </c>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>311</v>
       </c>
@@ -15698,7 +15707,7 @@
       </c>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>312</v>
       </c>
@@ -15751,61 +15760,61 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" t="s">
         <v>525</v>
       </c>
@@ -15822,7 +15831,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>283</v>
       </c>
@@ -15869,7 +15878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>284</v>
       </c>
@@ -15916,7 +15925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>285</v>
       </c>
@@ -15963,7 +15972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>286</v>
       </c>
@@ -16010,7 +16019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>287</v>
       </c>
@@ -16057,7 +16066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>288</v>
       </c>
@@ -16104,7 +16113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>289</v>
       </c>
@@ -16151,7 +16160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>290</v>
       </c>
@@ -16198,7 +16207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>291</v>
       </c>
@@ -16245,7 +16254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>292</v>
       </c>
@@ -16292,7 +16301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>293</v>
       </c>
@@ -16339,7 +16348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>294</v>
       </c>
@@ -16392,7 +16401,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>295</v>
       </c>
@@ -16439,7 +16448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>296</v>
       </c>
@@ -16486,7 +16495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>297</v>
       </c>
@@ -16533,7 +16542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>298</v>
       </c>
@@ -16581,7 +16590,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>299</v>
       </c>
@@ -16631,7 +16640,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>300</v>
       </c>
@@ -16681,7 +16690,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>301</v>
       </c>
@@ -16731,7 +16740,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>304</v>
       </c>
@@ -16781,7 +16790,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>305</v>
       </c>
@@ -16828,7 +16837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>306</v>
       </c>
@@ -16881,7 +16890,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>307</v>
       </c>
@@ -16931,7 +16940,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>308</v>
       </c>
